--- a/inputs/Inputs12.xlsx
+++ b/inputs/Inputs12.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00_BK\optimpy\RecloserOptim\hohohaha\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00_BK\2.BK Research\PSDistribution\psdistribution\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD97E4DE-1620-4A52-8B9C-15BE05B86C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SETTING" sheetId="6" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="LOADPROFILE" sheetId="5" r:id="rId4"/>
     <sheet name="GENPROFILE" sheetId="8" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,72 +39,121 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={3E225BA5-8EFB-4679-A6F7-382A17665526}</author>
-    <author>tc={1E26388B-BC44-498B-82ED-73C0EB06D744}</author>
-    <author>tc={132C7C64-C3AF-441D-B193-43194F30A844}</author>
-    <author>tc={F3B78F1B-06E1-42E2-9B97-7457DADAC212}</author>
-    <author>tc={E3FF0377-040E-4361-A18F-C0D87EE8D8DD}</author>
+    <author>PhuongPQ</author>
     <author>tc={3B907D77-D630-4363-8FA6-39DC51E6DDC1}</author>
     <author>tc={FA38E9CA-F9B5-4847-9761-7E7E354CB3FA}</author>
   </authors>
   <commentList>
-    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{3E225BA5-8EFB-4679-A6F7-382A17665526}">
+    <comment ref="A6" authorId="0" shapeId="0">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Value,penality</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> Value,penality</t>
+        </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="1" shapeId="0" xr:uid="{1E26388B-BC44-498B-82ED-73C0EB06D744}">
+    <comment ref="C6" authorId="1" shapeId="0">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Value,penality</t>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Value,penality</t>
+        </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="2" shapeId="0" xr:uid="{132C7C64-C3AF-441D-B193-43194F30A844}">
+    <comment ref="D6" authorId="1" shapeId="0">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Value,penality</t>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Value,penality</t>
+        </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="3" shapeId="0" xr:uid="{F3B78F1B-06E1-42E2-9B97-7457DADAC212}">
+    <comment ref="E6" authorId="1" shapeId="0">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Cos Phi nguồn, khi phát Q (thường yếu cầu &gt;0.9)</t>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Value,penality</t>
+        </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="4" shapeId="0" xr:uid="{E3FF0377-040E-4361-A18F-C0D87EE8D8DD}">
+    <comment ref="A10" authorId="2" shapeId="0">
       <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Cos Phi nguồn, khi hút Q (thường yếu cầu &lt;-0.95 hoặc ko đc hút Q thì đặt 1)
-</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Comment:
+    PSM, GS,NR,...</t>
+        </r>
       </text>
     </comment>
-    <comment ref="F6" authorId="5" shapeId="0" xr:uid="{3B907D77-D630-4363-8FA6-39DC51E6DDC1}">
+    <comment ref="B10" authorId="3" shapeId="0">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    PSM, GS,NR,...</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>PSM (maxIteration,Epsilon)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="6" shapeId="0" xr:uid="{FA38E9CA-F9B5-4847-9761-7E7E354CB3FA}">
+    <comment ref="C10" authorId="3" shapeId="0">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    PSM (maxIteration,Epsilon)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>GS(maxIteration,Epsilon)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D10" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NR(maxIteration,Epsilon)</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -113,7 +161,7 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={0F66851E-D3AF-477F-9B30-F73A8715F065}</author>
     <author>tc={B7E55C45-E04A-4F94-86D3-DB2FF5464B13}</author>
@@ -127,102 +175,237 @@
     <author>tc={57748AED-F455-477B-A70E-41AA9060EA7C}</author>
     <author>tc={344E296B-18AF-4DD7-8F52-727297E2A374}</author>
     <author>tc={4124862F-D47B-4028-8B06-F9EC46FE13EF}</author>
+    <author>PhuongPQ</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{0F66851E-D3AF-477F-9B30-F73A8715F065}">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Số nút (duy nhất)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="1" shapeId="0" xr:uid="{B7E55C45-E04A-4F94-86D3-DB2FF5464B13}">
+    <comment ref="B2" authorId="1" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Tên nút</t>
+        </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="2" shapeId="0" xr:uid="{CC05E439-91CA-4296-9258-92175AA92058}">
+    <comment ref="C2" authorId="2" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Điện áp định mức nút</t>
+        </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="3" shapeId="0" xr:uid="{95B0448B-4542-45B3-9B74-3DA0C9AF60E7}">
+    <comment ref="D2" authorId="3" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     1-Inservice; 0- Out of service</t>
+        </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="4" shapeId="0" xr:uid="{82FE0F86-5F7B-47B8-BFD0-831AD0E8743E}">
+    <comment ref="E2" authorId="4" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Công suất tác dụng của phụ tải</t>
+        </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="5" shapeId="0" xr:uid="{39CF720A-8508-4C59-A4AF-2C27F3AAA34C}">
+    <comment ref="F2" authorId="5" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Công suất phản kháng của phụ tải</t>
+        </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="6" shapeId="0" xr:uid="{8A0DD14B-DA58-4394-9D76-FBA1B9E60E99}">
+    <comment ref="G2" authorId="6" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     &gt;0: capacitive; &lt;0 reactive</t>
+        </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="7" shapeId="0" xr:uid="{3B0866D0-3B3B-4813-BCA5-0BD66910F391}">
+    <comment ref="H2" authorId="7" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     1: Shunt có thể đóng/mở (branching)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="8" shapeId="0" xr:uid="{358A766E-B6D1-4484-A68D-C6AF472CBC6E}">
+    <comment ref="I2" authorId="8" shapeId="0">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Điện áp đặt tại cho Bus nguồn &gt;0</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Điện áp đặt tại cho Bus nguồn &gt;0</t>
+        </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="9" shapeId="0" xr:uid="{57748AED-F455-477B-A70E-41AA9060EA7C}">
+    <comment ref="J2" authorId="9" shapeId="0">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Công suất Q cực đại (của Bus nguồn)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Công suất Q cực đại (của Bus nguồn)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="10" shapeId="0" xr:uid="{344E296B-18AF-4DD7-8F52-727297E2A374}">
+    <comment ref="K2" authorId="10" shapeId="0">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Công suất Q cực tiểu (của Bus nguồn)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Công suất Q cực tiểu (của Bus nguồn)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="11" shapeId="0" xr:uid="{4124862F-D47B-4028-8B06-F9EC46FE13EF}">
+    <comment ref="L2" authorId="11" shapeId="0">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Loại BUS, 1/None- bus Tải, 2- bus PV, 3-bus SWING</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Loại BUS, 1/None- bus Tải, 2- bus PV, 3-bus SWING</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M2" authorId="12" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">tọa độ x plot
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N2" authorId="12" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>tọa độ y plot</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -230,44 +413,103 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={2891B164-1E7E-4E24-95C3-F0A912F89DA9}</author>
     <author>tc={0BF2B5F5-B4BA-4852-8537-4440F390515E}</author>
     <author>tc={B526F4FC-1E23-45DD-8EA5-6339AF33B2D8}</author>
     <author>tc={577997EB-0F36-4D58-A8E8-8A7BEDAC8012}</author>
+    <author>PhuongPQ</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{2891B164-1E7E-4E24-95C3-F0A912F89DA9}">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Số thứ tự Line, duy nhất &gt;1000</t>
+        </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="1" shapeId="0" xr:uid="{0BF2B5F5-B4BA-4852-8537-4440F390515E}">
+    <comment ref="E2" authorId="1" shapeId="0">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    1-Inservice; 0- Out of service; dùng để lưu trữ dự liệu thô</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>1-Inservice; 0- Out of service; dùng để lưu trữ dự liệu thô</t>
+        </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="2" shapeId="0" xr:uid="{B526F4FC-1E23-45DD-8EA5-6339AF33B2D8}">
+    <comment ref="F2" authorId="2" shapeId="0">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    1: có thể đóng/mở (branching)</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>1: có thể đóng/mở (branching)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="3" shapeId="0" xr:uid="{577997EB-0F36-4D58-A8E8-8A7BEDAC8012}">
+    <comment ref="G2" authorId="3" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Length of Line (km)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L2" authorId="4" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>tọa độ x plot cho các điểm rẽ</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M2" authorId="4" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>tọa độ y plot cho các điểm rẽ</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -275,17 +517,23 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={5265EB0F-E593-42DE-815A-9AF410BEA30D}</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{5265EB0F-E593-42DE-815A-9AF410BEA30D}">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Số nút của tải</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> Số nút của tải</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -293,26 +541,38 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={DF129167-068F-4704-ABFC-D80B0D0E1860}</author>
     <author>tc={B91813F5-07F5-46E3-ADE3-96359928C3D2}</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{DF129167-068F-4704-ABFC-D80B0D0E1860}">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Số nút của nguồn</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Số nút của nguồn</t>
+        </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="1" shapeId="0" xr:uid="{B91813F5-07F5-46E3-ADE3-96359928C3D2}">
+    <comment ref="B2" authorId="1" shapeId="0">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    điện áp tại nút nguồn (1) theo thời gian</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>điện áp tại nút nguồn (1) theo thời gian</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -320,7 +580,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
   <si>
     <t>NAME</t>
   </si>
@@ -463,9 +723,6 @@
     <t>100,1e3</t>
   </si>
   <si>
-    <t>option_PF</t>
-  </si>
-  <si>
     <t>1.1,1e4</t>
   </si>
   <si>
@@ -478,21 +735,6 @@
     <t>Qshunt[kvar]</t>
   </si>
   <si>
-    <t>psseLoad</t>
-  </si>
-  <si>
-    <t>psseShunt</t>
-  </si>
-  <si>
-    <t>psse</t>
-  </si>
-  <si>
-    <t>Pload ini</t>
-  </si>
-  <si>
-    <t>Qload ini</t>
-  </si>
-  <si>
     <t>cosPhiP</t>
   </si>
   <si>
@@ -502,18 +744,39 @@
     <t>-0.95,1e4</t>
   </si>
   <si>
-    <t>0.79,1e4</t>
+    <t>yCoord</t>
+  </si>
+  <si>
+    <t>xCoord</t>
+  </si>
+  <si>
+    <t>option_PSM</t>
+  </si>
+  <si>
+    <t>0.85,1e4</t>
+  </si>
+  <si>
+    <t>option_GS</t>
+  </si>
+  <si>
+    <t>option_NR</t>
+  </si>
+  <si>
+    <t>## POWERFLOW</t>
+  </si>
+  <si>
+    <t>CID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -539,8 +802,21 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -550,12 +826,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,7 +842,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -584,25 +854,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -625,61 +892,38 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>847725</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>471606</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>27344</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>372225</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>67369</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B01BC0E-6607-481E-95DB-25E0AB09AE26}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="9953625" y="3133725"/>
-          <a:ext cx="4900731" cy="2418119"/>
+          <a:off x="5495925" y="104775"/>
+          <a:ext cx="5372850" cy="4972744"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -691,61 +935,81 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>209282</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>142308</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>407343</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>115955</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>67425</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19744</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{515C0A3E-5ECF-648F-9780-2BB7ECEBF202}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="8135739" y="523308"/>
-          <a:ext cx="4579561" cy="2259647"/>
+          <a:off x="9772650" y="0"/>
+          <a:ext cx="5372850" cy="4972744"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>579783</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>16566</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>60072</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>88554</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6096000" y="207066"/>
+          <a:ext cx="4400159" cy="4072488"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1125,11 +1389,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D743E5D7-7511-4C8D-AD8E-B423A1FD670B}">
-  <dimension ref="A1:G25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1143,17 +1407,17 @@
     <col min="10" max="10" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -1164,7 +1428,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1177,12 +1441,12 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>43</v>
       </c>
@@ -1193,86 +1457,115 @@
         <v>45</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
+      <c r="C11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
     </row>
     <row r="21" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
+      <c r="A21" s="8"/>
     </row>
     <row r="23" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
+      <c r="A23" s="8"/>
     </row>
     <row r="25" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
+      <c r="A25" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.28515625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="8.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="13.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="11" width="15.140625" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="1"/>
+    <col min="7" max="7" width="13.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H1" s="1"/>
+      <c r="J1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1292,7 +1585,7 @@
         <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>39</v>
@@ -1309,20 +1602,15 @@
       <c r="L2" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="M2" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="N2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="P2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1336,11 +1624,9 @@
         <v>1</v>
       </c>
       <c r="E3" s="1">
-        <f>1.3*N3</f>
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <f>1.3*O3</f>
         <v>0</v>
       </c>
       <c r="G3" s="1">
@@ -1361,22 +1647,14 @@
       <c r="L3" s="1">
         <v>3</v>
       </c>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
       <c r="N3" s="1">
         <v>0</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" t="str">
-        <f t="shared" ref="P3:P14" si="0">_xlfn.CONCAT("psspy.load_chng_4(",A3,",","""1""",",[_i,_i,_i,_i,_i,_i],[",E3/1000,",",F3/1000,",_f,_f,_f,_f])")</f>
-        <v>psspy.load_chng_4(1,"1",[_i,_i,_i,_i,_i,_i],[0,0,_f,_f,_f,_f])</v>
-      </c>
-      <c r="Q3" t="str">
-        <f t="shared" ref="Q3:Q14" si="1">_xlfn.CONCAT("psspy.shunt_data(",A3,",""1""",",_i,[_f,",G3/1000,"])")</f>
-        <v>psspy.shunt_data(1,"1",_i,[_f,0])</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1390,12 +1668,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E13" si="2">1.3*N4</f>
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ref="F4:F14" si="3">1.3*O4</f>
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -1403,22 +1679,16 @@
       <c r="H4" s="1">
         <v>0</v>
       </c>
+      <c r="J4"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1">
+        <v>2</v>
+      </c>
       <c r="N4" s="1">
-        <v>200</v>
-      </c>
-      <c r="O4" s="1">
-        <v>100</v>
-      </c>
-      <c r="P4" t="str">
-        <f t="shared" si="0"/>
-        <v>psspy.load_chng_4(2,"1",[_i,_i,_i,_i,_i,_i],[0.26,0.13,_f,_f,_f,_f])</v>
-      </c>
-      <c r="Q4" t="str">
-        <f t="shared" si="1"/>
-        <v>psspy.shunt_data(2,"1",_i,[_f,0])</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1432,12 +1702,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="2"/>
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" si="3"/>
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -1445,22 +1713,16 @@
       <c r="H5" s="1">
         <v>0</v>
       </c>
+      <c r="J5"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1">
+        <v>3</v>
+      </c>
       <c r="N5" s="1">
-        <v>200</v>
-      </c>
-      <c r="O5" s="1">
-        <v>100</v>
-      </c>
-      <c r="P5" t="str">
-        <f t="shared" si="0"/>
-        <v>psspy.load_chng_4(3,"1",[_i,_i,_i,_i,_i,_i],[0.26,0.13,_f,_f,_f,_f])</v>
-      </c>
-      <c r="Q5" t="str">
-        <f t="shared" si="1"/>
-        <v>psspy.shunt_data(3,"1",_i,[_f,0])</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1474,12 +1736,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="2"/>
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="3"/>
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -1487,22 +1747,16 @@
       <c r="H6" s="1">
         <v>0</v>
       </c>
+      <c r="J6"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1">
+        <v>4</v>
+      </c>
       <c r="N6" s="1">
-        <v>200</v>
-      </c>
-      <c r="O6" s="1">
-        <v>100</v>
-      </c>
-      <c r="P6" t="str">
-        <f t="shared" si="0"/>
-        <v>psspy.load_chng_4(4,"1",[_i,_i,_i,_i,_i,_i],[0.26,0.13,_f,_f,_f,_f])</v>
-      </c>
-      <c r="Q6" t="str">
-        <f t="shared" si="1"/>
-        <v>psspy.shunt_data(4,"1",_i,[_f,0])</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1516,12 +1770,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="2"/>
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="3"/>
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -1530,22 +1782,16 @@
         <v>0</v>
       </c>
       <c r="I7" s="1"/>
+      <c r="J7"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1">
+        <v>5</v>
+      </c>
       <c r="N7" s="1">
-        <v>200</v>
-      </c>
-      <c r="O7" s="1">
-        <v>100</v>
-      </c>
-      <c r="P7" t="str">
-        <f t="shared" si="0"/>
-        <v>psspy.load_chng_4(5,"1",[_i,_i,_i,_i,_i,_i],[0.26,0.13,_f,_f,_f,_f])</v>
-      </c>
-      <c r="Q7" t="str">
-        <f t="shared" si="1"/>
-        <v>psspy.shunt_data(5,"1",_i,[_f,0])</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1559,12 +1805,10 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="2"/>
-        <v>1040</v>
+        <v>800</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" si="3"/>
-        <v>1040</v>
+        <v>800</v>
       </c>
       <c r="G8" s="1">
         <v>500</v>
@@ -1573,24 +1817,16 @@
         <v>1</v>
       </c>
       <c r="I8" s="3"/>
-      <c r="J8" s="1"/>
       <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1">
+        <v>6</v>
+      </c>
       <c r="N8" s="1">
-        <v>800</v>
-      </c>
-      <c r="O8" s="1">
-        <v>800</v>
-      </c>
-      <c r="P8" t="str">
-        <f t="shared" si="0"/>
-        <v>psspy.load_chng_4(6,"1",[_i,_i,_i,_i,_i,_i],[1.04,1.04,_f,_f,_f,_f])</v>
-      </c>
-      <c r="Q8" t="str">
-        <f t="shared" si="1"/>
-        <v>psspy.shunt_data(6,"1",_i,[_f,0.5])</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1604,12 +1840,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="2"/>
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="3"/>
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -1617,22 +1851,16 @@
       <c r="H9" s="1">
         <v>0</v>
       </c>
+      <c r="J9"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1">
+        <v>2</v>
+      </c>
       <c r="N9" s="1">
-        <v>150</v>
-      </c>
-      <c r="O9" s="1">
-        <v>100</v>
-      </c>
-      <c r="P9" t="str">
-        <f t="shared" si="0"/>
-        <v>psspy.load_chng_4(7,"1",[_i,_i,_i,_i,_i,_i],[0.195,0.13,_f,_f,_f,_f])</v>
-      </c>
-      <c r="Q9" t="str">
-        <f t="shared" si="1"/>
-        <v>psspy.shunt_data(7,"1",_i,[_f,0])</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1646,12 +1874,10 @@
         <v>1</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="2"/>
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="3"/>
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="G10" s="1">
         <v>-200</v>
@@ -1659,22 +1885,16 @@
       <c r="H10" s="1">
         <v>1</v>
       </c>
+      <c r="J10"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1">
+        <v>2</v>
+      </c>
       <c r="N10" s="1">
-        <v>200</v>
-      </c>
-      <c r="O10" s="1">
-        <v>100</v>
-      </c>
-      <c r="P10" t="str">
-        <f t="shared" si="0"/>
-        <v>psspy.load_chng_4(8,"1",[_i,_i,_i,_i,_i,_i],[0.26,0.13,_f,_f,_f,_f])</v>
-      </c>
-      <c r="Q10" t="str">
-        <f t="shared" si="1"/>
-        <v>psspy.shunt_data(8,"1",_i,[_f,-0.2])</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1688,12 +1908,10 @@
         <v>1</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="2"/>
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="3"/>
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -1701,22 +1919,16 @@
       <c r="H11" s="1">
         <v>0</v>
       </c>
+      <c r="J11"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1">
+        <v>4</v>
+      </c>
       <c r="N11" s="1">
-        <v>150</v>
-      </c>
-      <c r="O11" s="1">
-        <v>200</v>
-      </c>
-      <c r="P11" t="str">
-        <f t="shared" si="0"/>
-        <v>psspy.load_chng_4(9,"1",[_i,_i,_i,_i,_i,_i],[0.195,0.26,_f,_f,_f,_f])</v>
-      </c>
-      <c r="Q11" t="str">
-        <f t="shared" si="1"/>
-        <v>psspy.shunt_data(9,"1",_i,[_f,0])</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1730,12 +1942,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="2"/>
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="3"/>
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -1743,22 +1953,16 @@
       <c r="H12" s="1">
         <v>0</v>
       </c>
+      <c r="J12"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1">
+        <v>4</v>
+      </c>
       <c r="N12" s="1">
-        <v>150</v>
-      </c>
-      <c r="O12" s="1">
-        <v>100</v>
-      </c>
-      <c r="P12" t="str">
-        <f t="shared" si="0"/>
-        <v>psspy.load_chng_4(10,"1",[_i,_i,_i,_i,_i,_i],[0.195,0.13,_f,_f,_f,_f])</v>
-      </c>
-      <c r="Q12" t="str">
-        <f t="shared" si="1"/>
-        <v>psspy.shunt_data(10,"1",_i,[_f,0])</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1772,12 +1976,10 @@
         <v>1</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="2"/>
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="3"/>
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -1785,22 +1987,16 @@
       <c r="H13" s="1">
         <v>0</v>
       </c>
+      <c r="J13"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1">
+        <v>5</v>
+      </c>
       <c r="N13" s="1">
-        <v>200</v>
-      </c>
-      <c r="O13" s="1">
-        <v>100</v>
-      </c>
-      <c r="P13" t="str">
-        <f t="shared" si="0"/>
-        <v>psspy.load_chng_4(11,"1",[_i,_i,_i,_i,_i,_i],[0.26,0.13,_f,_f,_f,_f])</v>
-      </c>
-      <c r="Q13" t="str">
-        <f t="shared" si="1"/>
-        <v>psspy.shunt_data(11,"1",_i,[_f,0])</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1814,12 +2010,11 @@
         <v>1</v>
       </c>
       <c r="E14" s="1">
-        <f>1.3*N14</f>
-        <v>260</v>
+        <f>1.3*L14</f>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="3"/>
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -1827,19 +2022,14 @@
       <c r="H14" s="1">
         <v>0</v>
       </c>
+      <c r="I14" s="3"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1">
+        <v>4</v>
+      </c>
       <c r="N14" s="1">
-        <v>200</v>
-      </c>
-      <c r="O14" s="1">
-        <v>100</v>
-      </c>
-      <c r="P14" t="str">
-        <f t="shared" si="0"/>
-        <v>psspy.load_chng_4(12,"1",[_i,_i,_i,_i,_i,_i],[0.26,0.13,_f,_f,_f,_f])</v>
-      </c>
-      <c r="Q14" t="str">
-        <f t="shared" si="1"/>
-        <v>psspy.shunt_data(12,"1",_i,[_f,0])</v>
+        <v>-3</v>
       </c>
     </row>
   </sheetData>
@@ -1852,43 +2042,43 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8534A8E2-F3E9-4B36-88AA-22FA11220D90}">
-  <dimension ref="A1:M24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="10.28515625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="8.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" customWidth="1"/>
-    <col min="12" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="8.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="1"/>
+    <col min="13" max="13" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="9">
+      <c r="C1" s="7">
         <f>BUS!C3*BUS!C3/10</f>
         <v>14.4</v>
       </c>
-      <c r="G1" s="1">
+      <c r="D1" s="7"/>
+      <c r="H1" s="1">
         <v>0.21</v>
       </c>
-      <c r="H1" s="1">
+      <c r="I1" s="1">
         <f>0.41</f>
         <v>0.41</v>
       </c>
-      <c r="I1" s="1">
-        <f>12*12/10</f>
-        <v>14.4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1899,31 +2089,37 @@
         <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>35</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1937,32 +2133,32 @@
         <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
         <v>3</v>
       </c>
-      <c r="G3" s="1">
-        <f>F3*$G$1</f>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H17" si="0">G3*$H$1</f>
         <v>0.63</v>
       </c>
-      <c r="H3" s="1">
-        <f>F3*$H$1</f>
+      <c r="I3" s="1">
+        <f>G3*$I$1</f>
         <v>1.23</v>
       </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
       <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
         <v>300</v>
       </c>
-      <c r="L3" s="4" t="str">
-        <f>_xlfn.CONCAT("psspy.branch_chng(",B3,",",C3,",""1""",",[_i,_i,_i,_i,_i,_i],[",G3/$C$1,",",H3/$C$1,",",I3*$C$1*0.000001,",",J3*BUS!$C$3*SQRT(3)/1000,",_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])")</f>
-        <v>psspy.branch_chng(2,1,"1",[_i,_i,_i,_i,_i,_i],[0.04375,0.0854166666666667,0,6.23538290724796,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])</v>
-      </c>
-      <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M3" s="10"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1979,29 +2175,28 @@
         <v>1</v>
       </c>
       <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
         <v>3.5</v>
       </c>
-      <c r="G4" s="1">
-        <f t="shared" ref="G4:G18" si="0">F4*$G$1</f>
+      <c r="H4" s="1">
+        <f t="shared" si="0"/>
         <v>0.73499999999999999</v>
       </c>
-      <c r="H4" s="1">
-        <f t="shared" ref="H4:H14" si="1">F4*$H$1</f>
+      <c r="I4" s="1">
+        <f t="shared" ref="I4:I14" si="1">G4*$I$1</f>
         <v>1.4349999999999998</v>
       </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
       <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
         <v>200</v>
       </c>
-      <c r="L4" s="4" t="str">
-        <f>_xlfn.CONCAT("psspy.branch_chng(",B4,",",C4,",""1""",",[_i,_i,_i,_i,_i,_i],[",G4/$C$1,",",H4/$C$1,",",I4*$C$1*0.000001,",",J4*BUS!$C$3*SQRT(3)/1000,",_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])")</f>
-        <v>psspy.branch_chng(3,2,"1",[_i,_i,_i,_i,_i,_i],[0.0510416666666667,0.0996527777777778,0,4.15692193816531,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])</v>
-      </c>
-      <c r="M4" s="4"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2018,29 +2213,28 @@
         <v>1</v>
       </c>
       <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
         <v>3</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <f t="shared" si="0"/>
         <v>0.63</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <f t="shared" si="1"/>
         <v>1.23</v>
       </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
       <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
         <v>300</v>
       </c>
-      <c r="L5" s="4" t="str">
-        <f>_xlfn.CONCAT("psspy.branch_chng(",B5,",",C5,",""1""",",[_i,_i,_i,_i,_i,_i],[",G5/$C$1,",",H5/$C$1,",",I5*$C$1*0.000001,",",J5*BUS!$C$3*SQRT(3)/1000,",_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])")</f>
-        <v>psspy.branch_chng(4,3,"1",[_i,_i,_i,_i,_i,_i],[0.04375,0.0854166666666667,0,6.23538290724796,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])</v>
-      </c>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2057,29 +2251,28 @@
         <v>1</v>
       </c>
       <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
         <v>3.5</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <f t="shared" si="0"/>
         <v>0.73499999999999999</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <f t="shared" si="1"/>
         <v>1.4349999999999998</v>
       </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
       <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
         <v>300</v>
       </c>
-      <c r="L6" s="4" t="str">
-        <f>_xlfn.CONCAT("psspy.branch_chng(",B6,",",C6,",""1""",",[_i,_i,_i,_i,_i,_i],[",G6/$C$1,",",H6/$C$1,",",I6*$C$1*0.000001,",",J6*BUS!$C$3*SQRT(3)/1000,",_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])")</f>
-        <v>psspy.branch_chng(4,5,"1",[_i,_i,_i,_i,_i,_i],[0.0510416666666667,0.0996527777777778,0,6.23538290724796,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])</v>
-      </c>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2096,29 +2289,28 @@
         <v>1</v>
       </c>
       <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
         <v>2.5</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <f t="shared" si="0"/>
         <v>0.52500000000000002</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <f t="shared" si="1"/>
         <v>1.0249999999999999</v>
       </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
       <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
         <v>300</v>
       </c>
-      <c r="L7" s="4" t="str">
-        <f>_xlfn.CONCAT("psspy.branch_chng(",B7,",",C7,",""1""",",[_i,_i,_i,_i,_i,_i],[",G7/$C$1,",",H7/$C$1,",",I7*$C$1*0.000001,",",J7*BUS!$C$3*SQRT(3)/1000,",_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])")</f>
-        <v>psspy.branch_chng(5,6,"1",[_i,_i,_i,_i,_i,_i],[0.0364583333333333,0.0711805555555556,0,6.23538290724796,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])</v>
-      </c>
-      <c r="M7" s="4"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2135,68 +2327,68 @@
         <v>1</v>
       </c>
       <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
         <v>3</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <f t="shared" si="0"/>
         <v>0.63</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <f t="shared" si="1"/>
         <v>1.23</v>
       </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
       <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
         <v>300</v>
       </c>
-      <c r="L8" s="4" t="str">
-        <f>_xlfn.CONCAT("psspy.branch_chng(",B8,",",C8,",""1""",",[_i,_i,_i,_i,_i,_i],[",G8/$C$1,",",H8/$C$1,",",I8*$C$1*0.000001,",",J8*BUS!$C$3*SQRT(3)/1000,",_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])")</f>
-        <v>psspy.branch_chng(2,7,"1",[_i,_i,_i,_i,_i,_i],[0.04375,0.0854166666666667,0,6.23538290724796,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])</v>
-      </c>
-      <c r="M8" s="4"/>
-    </row>
-    <row r="9" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="1">
         <v>7</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="1">
         <v>8</v>
       </c>
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5">
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
         <v>3.5</v>
       </c>
-      <c r="G9" s="5">
+      <c r="H9" s="1">
         <f t="shared" si="0"/>
         <v>0.73499999999999999</v>
       </c>
-      <c r="H9" s="5">
+      <c r="I9" s="1">
         <f t="shared" si="1"/>
         <v>1.4349999999999998</v>
       </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
       <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
         <v>300</v>
       </c>
-      <c r="L9" s="4" t="str">
-        <f>_xlfn.CONCAT("psspy.branch_chng(",B9,",",C9,",""1""",",[_i,_i,_i,_i,_i,_i],[",G9/$C$1,",",H9/$C$1,",",I9*$C$1*0.000001,",",J9*BUS!$C$3*SQRT(3)/1000,",_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])")</f>
-        <v>psspy.branch_chng(7,8,"1",[_i,_i,_i,_i,_i,_i],[0.0510416666666667,0.0996527777777778,0,6.23538290724796,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])</v>
-      </c>
-      <c r="M9" s="7"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2213,29 +2405,28 @@
         <v>1</v>
       </c>
       <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
         <v>2.5</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <f t="shared" si="0"/>
         <v>0.52500000000000002</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <f t="shared" si="1"/>
         <v>1.0249999999999999</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <v>500</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
         <v>300</v>
       </c>
-      <c r="L10" s="4" t="str">
-        <f>_xlfn.CONCAT("psspy.branch_chng(",B10,",",C10,",""1""",",[_i,_i,_i,_i,_i,_i],[",G10/$C$1,",",H10/$C$1,",",I10*$C$1*0.000001,",",J10*BUS!$C$3*SQRT(3)/1000,",_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])")</f>
-        <v>psspy.branch_chng(9,4,"1",[_i,_i,_i,_i,_i,_i],[0.0364583333333333,0.0711805555555556,0.0072,6.23538290724796,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])</v>
-      </c>
-      <c r="M10" s="4"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2252,29 +2443,28 @@
         <v>1</v>
       </c>
       <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
         <v>2.5</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <f t="shared" si="0"/>
         <v>0.52500000000000002</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <f t="shared" si="1"/>
         <v>1.0249999999999999</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <v>500</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
         <v>300</v>
       </c>
-      <c r="L11" s="4" t="str">
-        <f>_xlfn.CONCAT("psspy.branch_chng(",B11,",",C11,",""1""",",[_i,_i,_i,_i,_i,_i],[",G11/$C$1,",",H11/$C$1,",",I11*$C$1*0.000001,",",J11*BUS!$C$3*SQRT(3)/1000,",_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])")</f>
-        <v>psspy.branch_chng(10,9,"1",[_i,_i,_i,_i,_i,_i],[0.0364583333333333,0.0711805555555556,0.0072,6.23538290724796,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])</v>
-      </c>
-      <c r="M11" s="7"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2291,29 +2481,28 @@
         <v>1</v>
       </c>
       <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
         <v>3.5</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <f t="shared" si="0"/>
         <v>0.73499999999999999</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <f t="shared" si="1"/>
         <v>1.4349999999999998</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="1">
         <v>700</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K12" s="1">
         <v>300</v>
       </c>
-      <c r="L12" s="4" t="str">
-        <f>_xlfn.CONCAT("psspy.branch_chng(",B12,",",C12,",""1""",",[_i,_i,_i,_i,_i,_i],[",G12/$C$1,",",H12/$C$1,",",I12*$C$1*0.000001,",",J12*BUS!$C$3*SQRT(3)/1000,",_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])")</f>
-        <v>psspy.branch_chng(12,10,"1",[_i,_i,_i,_i,_i,_i],[0.0510416666666667,0.0996527777777778,0.01008,6.23538290724796,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])</v>
-      </c>
-      <c r="M12" s="4"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2330,224 +2519,193 @@
         <v>1</v>
       </c>
       <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
         <v>3.5</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <f t="shared" si="0"/>
         <v>0.73499999999999999</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <f t="shared" si="1"/>
         <v>1.4349999999999998</v>
       </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
       <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
         <v>300</v>
       </c>
-      <c r="L13" s="4" t="str">
-        <f>_xlfn.CONCAT("psspy.branch_chng(",B13,",",C13,",""1""",",[_i,_i,_i,_i,_i,_i],[",G13/$C$1,",",H13/$C$1,",",I13*$C$1*0.000001,",",J13*BUS!$C$3*SQRT(3)/1000,",_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])")</f>
-        <v>psspy.branch_chng(11,5,"1",[_i,_i,_i,_i,_i,_i],[0.0510416666666667,0.0996527777777778,0,6.23538290724796,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])</v>
-      </c>
-      <c r="M13" s="4"/>
-    </row>
-    <row r="14" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="1">
         <v>7</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="1">
         <v>9</v>
       </c>
-      <c r="D14" s="8">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8">
-        <v>1</v>
-      </c>
-      <c r="F14" s="8">
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
         <v>3.5</v>
       </c>
-      <c r="G14" s="8">
+      <c r="H14" s="1">
         <f t="shared" si="0"/>
         <v>0.73499999999999999</v>
       </c>
-      <c r="H14" s="8">
+      <c r="I14" s="1">
         <f t="shared" si="1"/>
         <v>1.4349999999999998</v>
       </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14" s="8">
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
         <v>300</v>
       </c>
-      <c r="L14" s="4" t="str">
-        <f>_xlfn.CONCAT("psspy.branch_chng(",B14,",",C14,",""1""",",[_i,_i,_i,_i,_i,_i],[",G14/$C$1,",",H14/$C$1,",",I14*$C$1*0.000001,",",J14*BUS!$C$3*SQRT(3)/1000,",_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])")</f>
-        <v>psspy.branch_chng(7,9,"1",[_i,_i,_i,_i,_i,_i],[0.0510416666666667,0.0996527777777778,0,6.23538290724796,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])</v>
-      </c>
-      <c r="M14" s="7"/>
-    </row>
-    <row r="15" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="1">
         <v>9</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="1">
         <v>11</v>
       </c>
-      <c r="D15" s="8">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8">
-        <v>1</v>
-      </c>
-      <c r="F15" s="8">
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
         <v>3.5</v>
       </c>
-      <c r="G15" s="8">
+      <c r="H15" s="1">
         <f t="shared" si="0"/>
         <v>0.73499999999999999</v>
       </c>
-      <c r="H15" s="8">
-        <f>F15*$H$1</f>
+      <c r="I15" s="1">
+        <f>G15*$I$1</f>
         <v>1.4349999999999998</v>
       </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
-      <c r="J15" s="8">
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
         <v>300</v>
       </c>
-      <c r="L15" s="4" t="str">
-        <f>_xlfn.CONCAT("psspy.branch_chng(",B15,",",C15,",""1""",",[_i,_i,_i,_i,_i,_i],[",G15/$C$1,",",H15/$C$1,",",I15*$C$1*0.000001,",",J15*BUS!$C$3*SQRT(3)/1000,",_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])")</f>
-        <v>psspy.branch_chng(9,11,"1",[_i,_i,_i,_i,_i,_i],[0.0510416666666667,0.0996527777777778,0,6.23538290724796,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="1">
         <v>8</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="1">
         <v>10</v>
       </c>
-      <c r="D16" s="8">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8">
-        <v>1</v>
-      </c>
-      <c r="F16" s="8">
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
         <v>3.5</v>
       </c>
-      <c r="G16" s="8">
+      <c r="H16" s="1">
         <f t="shared" si="0"/>
         <v>0.73499999999999999</v>
       </c>
-      <c r="H16" s="8">
-        <f>F16*$H$1</f>
+      <c r="I16" s="1">
+        <f>G16*$I$1</f>
         <v>1.4349999999999998</v>
       </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-      <c r="J16" s="8">
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
         <v>300</v>
       </c>
-      <c r="L16" s="4" t="str">
-        <f>_xlfn.CONCAT("psspy.branch_chng(",B16,",",C16,",""1""",",[_i,_i,_i,_i,_i,_i],[",G16/$C$1,",",H16/$C$1,",",I16*$C$1*0.000001,",",J16*BUS!$C$3*SQRT(3)/1000,",_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])")</f>
-        <v>psspy.branch_chng(8,10,"1",[_i,_i,_i,_i,_i,_i],[0.0510416666666667,0.0996527777777778,0,6.23538290724796,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="8">
-        <v>10</v>
-      </c>
-      <c r="C17" s="8">
+      <c r="B17" s="1">
         <v>11</v>
       </c>
-      <c r="D17" s="8">
-        <v>1</v>
-      </c>
-      <c r="E17" s="8">
-        <v>1</v>
-      </c>
-      <c r="F17" s="8">
+      <c r="C17" s="1">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
         <v>3.5</v>
       </c>
-      <c r="G17" s="8">
+      <c r="H17" s="1">
         <f t="shared" si="0"/>
         <v>0.73499999999999999</v>
       </c>
-      <c r="H17" s="8">
-        <f>F17*$H$1</f>
+      <c r="I17" s="1">
+        <f>G17*$I$1</f>
         <v>1.4349999999999998</v>
       </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-      <c r="J17" s="8">
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
         <v>300</v>
       </c>
-      <c r="L17" s="4" t="str">
-        <f>_xlfn.CONCAT("psspy.branch_chng(",B17,",",C17,",""1""",",[_i,_i,_i,_i,_i,_i],[",G17/$C$1,",",H17/$C$1,",",I17*$C$1*0.000001,",",J17*BUS!$C$3*SQRT(3)/1000,",_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])")</f>
-        <v>psspy.branch_chng(10,11,"1",[_i,_i,_i,_i,_i,_i],[0.0510416666666667,0.0996527777777778,0,6.23538290724796,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
-        <v>16</v>
-      </c>
-      <c r="B18" s="8">
-        <v>11</v>
-      </c>
-      <c r="C18" s="8">
-        <v>12</v>
-      </c>
-      <c r="D18" s="8">
-        <v>1</v>
-      </c>
-      <c r="E18" s="8">
-        <v>1</v>
-      </c>
-      <c r="F18" s="8">
-        <v>3.5</v>
-      </c>
-      <c r="G18" s="8">
-        <f t="shared" si="0"/>
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="H18" s="8">
-        <f>F18*$H$1</f>
-        <v>1.4349999999999998</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0</v>
-      </c>
-      <c r="J18" s="8">
-        <v>300</v>
-      </c>
-      <c r="L18" s="4" t="str">
-        <f>_xlfn.CONCAT("psspy.branch_chng(",B18,",",C18,",""1""",",[_i,_i,_i,_i,_i,_i],[",G18/$C$1,",",H18/$C$1,",",I18*$C$1*0.000001,",",J18*BUS!$C$3*SQRT(3)/1000,",_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])")</f>
-        <v>psspy.branch_chng(11,12,"1",[_i,_i,_i,_i,_i,_i],[0.0510416666666667,0.0996527777777778,0,6.23538290724796,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f,_f])</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L23" s="4"/>
-    </row>
-    <row r="24" spans="1:12" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="L24" s="10"/>
+      <c r="L17" s="1">
+        <v>5</v>
+      </c>
+      <c r="M17" s="1">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M22" s="10"/>
+    </row>
+    <row r="23" spans="1:13" ht="27.75" x14ac:dyDescent="0.25">
+      <c r="M23" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2558,11 +2716,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E9635DB-F42E-4462-A748-8598CC601CE4}">
-  <dimension ref="A1:T26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2570,12 +2728,12 @@
     <col min="1" max="1" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -2616,7 +2774,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2657,7 +2815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2698,7 +2856,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2739,7 +2897,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2780,7 +2938,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2821,7 +2979,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2862,7 +3020,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2903,7 +3061,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2944,7 +3102,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2985,7 +3143,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3026,7 +3184,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3067,7 +3225,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3108,7 +3266,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3148,12 +3306,8 @@
       <c r="M15">
         <v>0.94</v>
       </c>
-      <c r="T15">
-        <f>2^24</f>
-        <v>16777216</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3611,24 +3765,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{335F4B82-63AA-419B-A4EA-49F5204FBB86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -3652,7 +3805,7 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3660,7 +3813,7 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>1.02</v>
       </c>
     </row>
@@ -3668,7 +3821,7 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>1.03</v>
       </c>
     </row>
@@ -3676,7 +3829,7 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>1.04</v>
       </c>
     </row>
@@ -3684,7 +3837,7 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>1.03</v>
       </c>
     </row>
@@ -3692,7 +3845,7 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>1.03</v>
       </c>
     </row>
@@ -3700,7 +3853,7 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>1.02</v>
       </c>
     </row>
@@ -3708,7 +3861,7 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>1.01</v>
       </c>
     </row>
@@ -3716,7 +3869,7 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>1.01</v>
       </c>
     </row>
@@ -3724,7 +3877,7 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3732,7 +3885,7 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3740,7 +3893,7 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3748,7 +3901,7 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3756,7 +3909,7 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3764,7 +3917,7 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3772,7 +3925,7 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3780,7 +3933,7 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3788,7 +3941,7 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3796,7 +3949,7 @@
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>1.01</v>
       </c>
     </row>
@@ -3804,7 +3957,7 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>1.01</v>
       </c>
     </row>
@@ -3812,7 +3965,7 @@
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>1.01</v>
       </c>
     </row>
@@ -3820,7 +3973,7 @@
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>1.01</v>
       </c>
     </row>
@@ -3828,7 +3981,7 @@
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>1.02</v>
       </c>
     </row>
@@ -3836,7 +3989,7 @@
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>1.02</v>
       </c>
     </row>

--- a/inputs/Inputs12.xlsx
+++ b/inputs/Inputs12.xlsx
@@ -2156,16 +2156,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>621195</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>157370</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>358221</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>143289</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>26941</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>63705</xdr:rowOff>
+      <xdr:colOff>487039</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>49624</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2182,8 +2182,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9127434" y="538370"/>
-          <a:ext cx="4400159" cy="4072488"/>
+          <a:off x="13159821" y="981489"/>
+          <a:ext cx="4396018" cy="4068760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2646,7 +2646,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2803,7 +2803,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3275,6 +3275,16 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -3287,7 +3297,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+      <selection activeCell="L3" sqref="L3:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3439,7 +3449,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="A3" sqref="A3:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3574,8 +3584,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4063,7 +4076,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="1">
         <v>1</v>
@@ -4149,7 +4162,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="1">
         <v>1</v>
@@ -4195,7 +4208,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="1">
         <v>1</v>
@@ -4325,6 +4338,16 @@
       <c r="Q23" s="10"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFC000"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -4337,7 +4360,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4645,7 +4668,7 @@
   <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5092,8 +5115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5403,7 +5426,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A2" sqref="A2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/inputs/Inputs12.xlsx
+++ b/inputs/Inputs12.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="741" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SETTING" sheetId="6" r:id="rId1"/>
@@ -396,8 +396,8 @@
     <author>tc={B7E55C45-E04A-4F94-86D3-DB2FF5464B13}</author>
     <author>tc={CC05E439-91CA-4296-9258-92175AA92058}</author>
     <author>tc={95B0448B-4542-45B3-9B74-3DA0C9AF60E7}</author>
+    <author>PhuongPQ</author>
     <author>tc={358A766E-B6D1-4484-A68D-C6AF472CBC6E}</author>
-    <author>PhuongPQ</author>
     <author>tc={57748AED-F455-477B-A70E-41AA9060EA7C}</author>
   </authors>
   <commentList>
@@ -461,6 +461,21 @@
       <text>
         <r>
           <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>0: feeder or Swing BUS
+1: Generator of PV BUS</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="5" shapeId="0">
+      <text>
+        <r>
+          <rPr>
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
@@ -471,7 +486,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="4" shapeId="0">
+    <comment ref="H2" authorId="5" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -485,7 +500,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="5" shapeId="0">
+    <comment ref="I2" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -509,7 +524,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="6" shapeId="0">
+    <comment ref="J2" authorId="6" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -524,7 +539,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="6" shapeId="0">
+    <comment ref="K2" authorId="6" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -539,7 +554,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="5" shapeId="0">
+    <comment ref="L2" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -553,7 +568,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="5" shapeId="0">
+    <comment ref="M2" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -567,7 +582,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="5" shapeId="0">
+    <comment ref="N2" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1551,7 +1566,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="103">
   <si>
     <t>NAME</t>
   </si>
@@ -1838,9 +1853,6 @@
     <t>i0     [%]</t>
   </si>
   <si>
-    <t>dP   [kw]</t>
-  </si>
-  <si>
     <t>NAME1</t>
   </si>
   <si>
@@ -1857,6 +1869,12 @@
   </si>
   <si>
     <t>deltaP   [kW]</t>
+  </si>
+  <si>
+    <t>CODE</t>
+  </si>
+  <si>
+    <t>deltaP   [kw]</t>
   </si>
 </sst>
 </file>
@@ -2070,13 +2088,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>43484</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>422413</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>542848</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>177114</xdr:rowOff>
@@ -2156,16 +2174,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>358221</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>310596</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>143289</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>487039</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>49624</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>217641</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>182973</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2182,8 +2200,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13159821" y="981489"/>
-          <a:ext cx="4396018" cy="4068760"/>
+          <a:off x="1644096" y="914400"/>
+          <a:ext cx="3202695" cy="2964273"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2206,7 +2224,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>391375</xdr:colOff>
+      <xdr:colOff>391376</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>121684</xdr:rowOff>
     </xdr:to>
@@ -2646,7 +2664,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2802,8 +2820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2812,9 +2830,10 @@
     <col min="2" max="2" width="18.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.5703125" style="1" customWidth="1"/>
     <col min="4" max="5" width="8.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="8" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -3276,11 +3295,19 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="max"/>
         <color rgb="FFFF7128"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5"/>
         <color theme="0"/>
       </colorScale>
     </cfRule>
@@ -3294,10 +3321,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:L4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3307,24 +3334,25 @@
     <col min="3" max="3" width="15.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.7109375" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="7.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="7.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H1"/>
       <c r="I1"/>
       <c r="J1"/>
       <c r="K1"/>
-    </row>
-    <row r="2" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L1"/>
+    </row>
+    <row r="2" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>65</v>
       </c>
@@ -3340,32 +3368,35 @@
       <c r="E2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="K2" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="M2" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3381,24 +3412,27 @@
       <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
         <v>1.02</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3" s="3">
         <v>15</v>
       </c>
-      <c r="I3" s="1">
-        <v>9999</v>
-      </c>
       <c r="J3" s="1">
-        <v>-9999</v>
+        <v>99999</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-99999</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3412,31 +3446,54 @@
         <v>12</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
         <v>1.02</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H4" s="3">
         <v>15</v>
       </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
       <c r="I4" s="1">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>-9999</v>
+        <v>99999</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>-99999</v>
       </c>
       <c r="L4" s="1">
         <v>0</v>
       </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color rgb="FFFFFF00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFFFF00"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -3449,7 +3506,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F5"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3485,7 +3542,7 @@
         <v>49</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>14</v>
@@ -3573,6 +3630,16 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFFFF00"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -3588,7 +3655,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S8" sqref="S8"/>
+      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3634,10 +3701,10 @@
         <v>82</v>
       </c>
       <c r="D2" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>96</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>97</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>31</v>
@@ -4208,7 +4275,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="1">
         <v>1</v>
@@ -4329,6 +4396,47 @@
       </c>
       <c r="Q17" s="1">
         <v>-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1">
+        <v>11</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -4360,7 +4468,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4368,7 +4476,8 @@
     <col min="1" max="1" width="7.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.28515625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="4" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.5703125" style="1" customWidth="1"/>
     <col min="8" max="8" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -4403,16 +4512,16 @@
         <v>82</v>
       </c>
       <c r="D2" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>96</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>97</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>31</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>14</v>
@@ -4656,6 +4765,16 @@
       <c r="O25" s="1"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF7128"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -4667,8 +4786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F1" sqref="E1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4676,9 +4795,9 @@
     <col min="1" max="1" width="7.140625" style="1" customWidth="1"/>
     <col min="2" max="3" width="8.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="1" customWidth="1"/>
     <col min="8" max="8" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.85546875" style="1" customWidth="1"/>
     <col min="10" max="10" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -4730,19 +4849,19 @@
         <v>83</v>
       </c>
       <c r="E2" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>97</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>98</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>31</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>14</v>
@@ -5104,6 +5223,16 @@
       <c r="W25" s="1"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF7128"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5116,7 +5245,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5426,7 +5555,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G4"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5457,7 +5586,7 @@
         <v>74</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>14</v>
@@ -5507,6 +5636,16 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF7128"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>

--- a/inputs/Inputs12.xlsx
+++ b/inputs/Inputs12.xlsx
@@ -8,8 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00_BK\2.BK Research\PSDistribution\psdistribution\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="741" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="741" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="SETTING" sheetId="6" r:id="rId1"/>
@@ -22,6 +23,14 @@
     <sheet name="PROFILE" sheetId="5" r:id="rId8"/>
     <sheet name="SHUNT_PLACEMENT" sheetId="7" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BUS!$A$2:$M$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">LINE!$A$2:$S$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">SHUNT!$A$2:$J$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SOURCE!$A$2:$O$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'TRF2'!$A$2:$O$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'TRF3'!$A$2:$U$2</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -46,22 +55,36 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>PhuongPQ</author>
-    <author>tc={3E225BA5-8EFB-4679-A6F7-382A17665526}</author>
     <author>tc={3B907D77-D630-4363-8FA6-39DC51E6DDC1}</author>
     <author>tc={FA38E9CA-F9B5-4847-9761-7E7E354CB3FA}</author>
+    <author>tc={3E225BA5-8EFB-4679-A6F7-382A17665526}</author>
   </authors>
   <commentList>
     <comment ref="A3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Đơn vị công suất [kw,mw]
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Số lượng Recloser cần tối ưu</t>
+          <t>Sbase[kva or mva]</t>
         </r>
       </text>
     </comment>
@@ -75,50 +98,12 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve"> Value,penality</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C7" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Value,penality</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D7" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Value,penality</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E7" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Value,penality</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A11" authorId="2" shapeId="0">
+          <t>Comment:
+    PSM, GS,NR,...</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A8" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -128,12 +113,11 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>Comment:
-    PSM, GS,NR,...</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B11" authorId="3" shapeId="0">
+          <t>PSM (maxIteration,Epsilon)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A9" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -143,11 +127,24 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>PSM (maxIteration,Epsilon)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C11" authorId="3" shapeId="0">
+          <t>GS(maxIteration,Epsilon)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NR(maxIteration,Epsilon)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A13" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -157,20 +154,115 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>GS(maxIteration,Epsilon)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D11" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
+          <t>giới hạn và hàm phạt về mức mang tải đường dây</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A14" authorId="3" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
-          </rPr>
-          <t>NR(maxIteration,Epsilon)</t>
+            <scheme val="minor"/>
+          </rPr>
+          <t>giới hạn và hàm phạt về mức mang tải máy biến áp</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A15" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Giới hạn, hàm phạt về điện áp cao</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Giới hạn, hàm phạt về điện áp thấp</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Giới hạn, hàm phạt cosPhi nguồn (phát CSPK)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Giới hạn, hàm phạt cosPhi nguồn (hút CSPK)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A21" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Số lượng Recloser cần tối ưu</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Trọng số xét đến số lượng phụ tải</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Trọng số xét đến công suất phụ tải</t>
         </r>
       </text>
     </comment>
@@ -327,8 +419,8 @@
             <charset val="1"/>
           </rPr>
           <t>Biểu đồ phụ tải
-0, bỏ trống: nếu fixed
-1,2… theo biểu đồ số 1,2
+bỏ trống: nếu fixed
+p1,p2… theo biểu đồ số p1,p2
 biểu đồ theo [pu]</t>
         </r>
       </text>
@@ -372,6 +464,25 @@
       </text>
     </comment>
     <comment ref="L2" authorId="7" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">plot kết quả tính toán; 1,2,5
+1: tên bus
+2: điện áp định mức bus
+3: ID bus
+4: điện áp bus [pu]
+5: điện áp bus [kv]
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M2" authorId="7" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -394,9 +505,8 @@
   <authors>
     <author>tc={0F66851E-D3AF-477F-9B30-F73A8715F065}</author>
     <author>tc={B7E55C45-E04A-4F94-86D3-DB2FF5464B13}</author>
-    <author>tc={CC05E439-91CA-4296-9258-92175AA92058}</author>
+    <author>PhuongPQ</author>
     <author>tc={95B0448B-4542-45B3-9B74-3DA0C9AF60E7}</author>
-    <author>PhuongPQ</author>
     <author>tc={358A766E-B6D1-4484-A68D-C6AF472CBC6E}</author>
     <author>tc={57748AED-F455-477B-A70E-41AA9060EA7C}</author>
   </authors>
@@ -425,11 +535,35 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>Tên nút</t>
+          <t>Tên nút, được VLOOPUP từ sheet BUS</t>
         </r>
       </text>
     </comment>
     <comment ref="D2" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>kV nút được VLOOPUP từ sheet BUS</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -439,11 +573,26 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>Điện áp định mức nút</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E2" authorId="3" shapeId="0">
+          <t>1-Inservice; 0- Out of service</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>0/'': feeder or Swing BUS
+1: Generator of PV BUS</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -453,26 +602,11 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>1-Inservice; 0- Out of service</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F2" authorId="4" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>0: feeder or Swing BUS
-1: Generator of PV BUS</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G2" authorId="5" shapeId="0">
+          <t>Điện áp nguồn [pu]</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -482,11 +616,35 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>Điện áp nguồn [pu]</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H2" authorId="5" shapeId="0">
+          <t>Góc pha nguồn[deg]</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>công suất phát nguồn, nếu slack bus thì để trống hoặc =0)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J2" authorId="5" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -496,35 +654,12 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>Góc pha nguồn[deg]</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I2" authorId="4" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>công suất phát nguồn, nếu slack bus thì để trống hoặc =0)</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J2" authorId="6" shapeId="0">
+          <t>Giới hạn CS Q (của Bus nguồn)
+Qmax,Qmin</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="5" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -539,22 +674,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="6" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Giới hạn CS Q (của Bus nguồn)
-Qmax,Qmin</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L2" authorId="4" shapeId="0">
+    <comment ref="L2" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -568,7 +688,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="4" shapeId="0">
+    <comment ref="M2" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -582,7 +702,23 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="4" shapeId="0">
+    <comment ref="N2" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>plot kết quả tính toán; 1,2,5
+1: pn[kw]
+10: pn[mw]
+3: pgen[kw]</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O2" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -605,9 +741,8 @@
   <authors>
     <author>tc={0F66851E-D3AF-477F-9B30-F73A8715F065}</author>
     <author>tc={B7E55C45-E04A-4F94-86D3-DB2FF5464B13}</author>
-    <author>tc={CC05E439-91CA-4296-9258-92175AA92058}</author>
+    <author>PhuongPQ</author>
     <author>tc={8A0DD14B-DA58-4394-9D76-FBA1B9E60E99}</author>
-    <author>PhuongPQ</author>
     <author>tc={95B0448B-4542-45B3-9B74-3DA0C9AF60E7}</author>
     <author>tc={3B0866D0-3B3B-4813-BCA5-0BD66910F391}</author>
   </authors>
@@ -636,11 +771,35 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>Tên nút</t>
+          <t>Tên nút, được VLOOPUP từ sheet BUS</t>
         </r>
       </text>
     </comment>
     <comment ref="D2" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>kV nút được VLOOPUP từ sheet BUS</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -650,11 +809,26 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>Điện áp định mức của SHUNT</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E2" authorId="3" shapeId="0">
+          <t>Công suất Tụ/Kháng bù ở kV
+ &gt;0: capacitive; &lt;0 reactive</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tổn thất cs tác dụng [kw]</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -664,40 +838,11 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>Công suất Tụ/Kháng bù ở kV
- &gt;0: capacitive; &lt;0 reactive</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F2" authorId="4" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Tổn thất cs tác dụng [kw]</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G2" authorId="5" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
           <t>1-Inservice; 0- Out of service</t>
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="6" shapeId="0">
+    <comment ref="H2" authorId="5" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -778,11 +923,49 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>Tên nút</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E2" authorId="2" shapeId="0">
+          <t>Tên nút, được VLOOPUP từ sheet BUS</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>kV nút được VLOOPUP từ sheet BUS</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Circuit ID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -792,25 +975,11 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>Tên nút</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F2" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Circuit ID</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G2" authorId="3" shapeId="0">
+          <t>1-Inservice; 0- Out of service; dùng để lưu trữ dự liệu thô</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -820,11 +989,11 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>1-Inservice; 0- Out of service; dùng để lưu trữ dự liệu thô</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H2" authorId="4" shapeId="0">
+          <t>1/0: có thể đặt Recloser (bài toán tối ưu vị trí đặt Recloser)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -834,11 +1003,11 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>1/0: có thể đặt Recloser (bài toán tối ưu vị trí đặt Recloser)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I2" authorId="4" shapeId="0">
+          <t>1: có thể đóng/mở (bài toán tối ưu điểm mở)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J2" authorId="5" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -848,20 +1017,6 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>1: có thể đóng/mở (bài toán tối ưu điểm mở)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J2" authorId="5" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
           <t>Chiều dài đường dây (km)</t>
         </r>
       </text>
@@ -923,7 +1078,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="1" shapeId="0">
+    <comment ref="S2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1002,11 +1157,49 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>Tên nút</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E2" authorId="2" shapeId="0">
+          <t>Tên nút, được VLOOPUP từ sheet BUS</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>kV nút được VLOOPUP từ sheet BUS</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Circuit ID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1016,34 +1209,6 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>Tên nút</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F2" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Circuit ID</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H2" authorId="3" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
           <t>1-Inservice; 0- Out of service; dùng để lưu trữ dự liệu thô</t>
         </r>
       </text>
@@ -1118,7 +1283,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="1" shapeId="0">
+    <comment ref="O2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1211,11 +1376,25 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>Tên nút</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F2" authorId="2" shapeId="0">
+          <t>Tên nút, được VLOOPUP từ sheet BUS</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Circuit ID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1225,53 +1404,11 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>Tên nút</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G2" authorId="2" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Tên nút</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H2" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Circuit ID</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J2" authorId="3" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
           <t>1-Inservice; 0- Out of service; dùng để lưu trữ dự liệu thô</t>
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="1" shapeId="0">
+    <comment ref="I2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1285,7 +1422,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="1" shapeId="0">
+    <comment ref="J2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1299,7 +1436,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="1" shapeId="0">
+    <comment ref="K2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1313,6 +1450,34 @@
         </r>
       </text>
     </comment>
+    <comment ref="L2" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Điện áp ngắn mạch 1-2 %</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M2" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Điện áp ngắn mạch 1-3 %</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="N2" authorId="1" shapeId="0">
       <text>
         <r>
@@ -1323,7 +1488,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Điện áp ngắn mạch 1-2 %</t>
+          <t>Điện áp ngắn mạch 2-3 %</t>
         </r>
       </text>
     </comment>
@@ -1337,7 +1502,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Điện áp ngắn mạch 1-3 %</t>
+          <t>tổn thất ngắn mạch 1-2 kw</t>
         </r>
       </text>
     </comment>
@@ -1351,7 +1516,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Điện áp ngắn mạch 2-3 %</t>
+          <t>tổn thất ngắn mạch 1-3 kw</t>
         </r>
       </text>
     </comment>
@@ -1365,7 +1530,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>tổn thất ngắn mạch 1-2 kw</t>
+          <t>tổn thất ngắn mạch 2-3 kw</t>
         </r>
       </text>
     </comment>
@@ -1379,7 +1544,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>tổn thất ngắn mạch 1-3 kw</t>
+          <t>Tổn thất không tải</t>
         </r>
       </text>
     </comment>
@@ -1391,41 +1556,13 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>tổn thất ngắn mạch 2-3 kw</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T2" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Tổn thất không tải</t>
+            <family val="2"/>
+          </rPr>
+          <t>Dòng không tải</t>
         </r>
       </text>
     </comment>
     <comment ref="U2" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Dòng không tải</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="V2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1447,6 +1584,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={5265EB0F-E593-42DE-815A-9AF410BEA30D}</author>
+    <author>PhuongPQ</author>
   </authors>
   <commentList>
     <comment ref="A2" authorId="0" shapeId="0">
@@ -1459,7 +1597,21 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve"> Số nút của tải</t>
+          <t>time series, 24h/168h, 8760h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>tên profile</t>
         </r>
       </text>
     </comment>
@@ -1519,6 +1671,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="D2" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Số lượng bộ tụ</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E2" authorId="1" shapeId="0">
       <text>
         <r>
@@ -1566,14 +1742,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="109">
   <si>
     <t>NAME</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>BUS1</t>
   </si>
   <si>
@@ -1613,9 +1786,6 @@
     <t>FLAG</t>
   </si>
   <si>
-    <t>LENGTH</t>
-  </si>
-  <si>
     <t>PSM</t>
   </si>
   <si>
@@ -1643,12 +1813,6 @@
     <t>0.9,1e4</t>
   </si>
   <si>
-    <t>50,1e-5</t>
-  </si>
-  <si>
-    <t>-0.95,1e4</t>
-  </si>
-  <si>
     <t>yCoord</t>
   </si>
   <si>
@@ -1664,15 +1828,9 @@
     <t>CID</t>
   </si>
   <si>
-    <t>LoadProfile</t>
-  </si>
-  <si>
     <t>## PROFILE_DATA</t>
   </si>
   <si>
-    <t>time\NO PROFILE</t>
-  </si>
-  <si>
     <t>RO_Recloser_number</t>
   </si>
   <si>
@@ -1682,9 +1840,6 @@
     <t>RO_K_power</t>
   </si>
   <si>
-    <t>BR_RateMax[%]</t>
-  </si>
-  <si>
     <t>BR_Umax[pu]</t>
   </si>
   <si>
@@ -1709,51 +1864,21 @@
     <t>PF_option_NR</t>
   </si>
   <si>
-    <t>QLOAD [kvar]</t>
-  </si>
-  <si>
-    <t>PLOAD [kw]</t>
-  </si>
-  <si>
-    <t>Qshunt [kvar]</t>
-  </si>
-  <si>
     <t>FLAG2</t>
   </si>
   <si>
     <t>## QSHUNT_DATA: số liệu các bộ tụ (dùng cho bài toán tối ưu đặt tụ)</t>
   </si>
   <si>
-    <t>Qmax [kvar]</t>
-  </si>
-  <si>
-    <t>Qmin [kvar]</t>
-  </si>
-  <si>
-    <t>PF_Sbase[kva]</t>
-  </si>
-  <si>
     <t>vGen [pu]</t>
   </si>
   <si>
     <t>aGen [deg]</t>
   </si>
   <si>
-    <t>PGen [kw]</t>
-  </si>
-  <si>
-    <t>vGenProfile</t>
-  </si>
-  <si>
-    <t>pGenProfile</t>
-  </si>
-  <si>
     <t>## BUSDATA: thông tin cơ bản về BUS và phụ tải</t>
   </si>
   <si>
-    <t>## SETTING: các cài đặt tính toán</t>
-  </si>
-  <si>
     <t>## SOURCEDATA: thông tin về nguồn</t>
   </si>
   <si>
@@ -1787,9 +1912,6 @@
     <t>nLOAD</t>
   </si>
   <si>
-    <t>nFault[per km per year]</t>
-  </si>
-  <si>
     <t>Number</t>
   </si>
   <si>
@@ -1799,15 +1921,6 @@
     <t>uk [%]</t>
   </si>
   <si>
-    <t>Sn [kvA]</t>
-  </si>
-  <si>
-    <t>pk [kw]</t>
-  </si>
-  <si>
-    <t>P0 [kw]</t>
-  </si>
-  <si>
     <t>i0 [%]</t>
   </si>
   <si>
@@ -1820,15 +1933,6 @@
     <t>BUS_ID3</t>
   </si>
   <si>
-    <t>pk2-3   [kw]</t>
-  </si>
-  <si>
-    <t>pk1-3   [kw]</t>
-  </si>
-  <si>
-    <t>pk1-2    [kw]</t>
-  </si>
-  <si>
     <t>uk2-3   [%]</t>
   </si>
   <si>
@@ -1838,43 +1942,133 @@
     <t>uk1-2   [%]</t>
   </si>
   <si>
-    <t>Sn3   [kvA]</t>
-  </si>
-  <si>
-    <t>Sn2   [kvA]</t>
-  </si>
-  <si>
-    <t>Sn1   [kvA]</t>
-  </si>
-  <si>
-    <t>P0     [kw]</t>
-  </si>
-  <si>
     <t>i0     [%]</t>
   </si>
   <si>
-    <t>NAME1</t>
-  </si>
-  <si>
-    <t>NAME2</t>
-  </si>
-  <si>
-    <t>NAME3</t>
-  </si>
-  <si>
     <t>NAME MBA2</t>
   </si>
   <si>
     <t>NAME MBA3</t>
   </si>
   <si>
-    <t>deltaP   [kW]</t>
-  </si>
-  <si>
     <t>CODE</t>
   </si>
   <si>
-    <t>deltaP   [kw]</t>
+    <t>LENGTH [km]</t>
+  </si>
+  <si>
+    <t>nFault [per km per year]</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>PLOT</t>
+  </si>
+  <si>
+    <t>vGen Profile</t>
+  </si>
+  <si>
+    <t>pGen Profile</t>
+  </si>
+  <si>
+    <t>Load Profile</t>
+  </si>
+  <si>
+    <t>BR_RateMaxLine[%]</t>
+  </si>
+  <si>
+    <t>BR_RateMaxTRF[%]</t>
+  </si>
+  <si>
+    <t>## GENERAL</t>
+  </si>
+  <si>
+    <t>kw</t>
+  </si>
+  <si>
+    <t>GE_PowerUnit</t>
+  </si>
+  <si>
+    <t>GE_Sbase</t>
+  </si>
+  <si>
+    <t>200,1e-5</t>
+  </si>
+  <si>
+    <t>VALUE</t>
+  </si>
+  <si>
+    <t>0.95,1e4</t>
+  </si>
+  <si>
+    <t>## SETTING: các cài đặt tính toán ## for comment</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>NAME BUS</t>
+  </si>
+  <si>
+    <t>PLOAD</t>
+  </si>
+  <si>
+    <t>QLOAD</t>
+  </si>
+  <si>
+    <t>AT1</t>
+  </si>
+  <si>
+    <t>Pgen</t>
+  </si>
+  <si>
+    <t>Qmax</t>
+  </si>
+  <si>
+    <t>Qmin</t>
+  </si>
+  <si>
+    <t>Qshunt</t>
+  </si>
+  <si>
+    <t>deltaP</t>
+  </si>
+  <si>
+    <t>Sn</t>
+  </si>
+  <si>
+    <t>pk</t>
+  </si>
+  <si>
+    <t>P0</t>
+  </si>
+  <si>
+    <t>Sn1</t>
+  </si>
+  <si>
+    <t>Sn2</t>
+  </si>
+  <si>
+    <t>Sn3</t>
+  </si>
+  <si>
+    <t>pk1-2</t>
+  </si>
+  <si>
+    <t>pk1-3</t>
+  </si>
+  <si>
+    <t>pk2-3</t>
+  </si>
+  <si>
+    <t>đơn vị kw</t>
+  </si>
+  <si>
+    <t>đơn vị kva,kw</t>
   </si>
 </sst>
 </file>
@@ -1985,7 +2179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2020,9 +2214,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2041,20 +2242,1034 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Profile: p</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>1</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PROFILE!$A$3:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PROFILE!$B$3:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3B61-4C1A-B6BE-A8728BE73A4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1735167647"/>
+        <c:axId val="1735168063"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1735167647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="24"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1735168063"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1735168063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1735167647"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>273326</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>347869</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>295308</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>54792</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>159776</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>102570</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>460182</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>73262</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2071,8 +3286,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8630478" y="538369"/>
-          <a:ext cx="5402668" cy="4972744"/>
+          <a:off x="7050731" y="1080561"/>
+          <a:ext cx="5359663" cy="4971470"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2088,14 +3303,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>43484</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>422413</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>542848</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>542847</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>177114</xdr:rowOff>
     </xdr:to>
@@ -2174,16 +3389,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>310596</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>62946</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>217641</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>182973</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>398616</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>135348</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2200,7 +3415,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1644096" y="914400"/>
+          <a:off x="9273621" y="1981200"/>
           <a:ext cx="3202695" cy="2964273"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2217,16 +3432,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>281608</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>265044</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>422414</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>33130</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>391376</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>121684</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>482486</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>88553</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2243,7 +3458,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8489673" y="455544"/>
+          <a:off x="6874566" y="1581978"/>
           <a:ext cx="4400159" cy="4072488"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2258,42 +3473,34 @@
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>281608</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>108387</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>265044</xdr:rowOff>
+      <xdr:rowOff>111671</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>391375</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>121684</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>236482</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>57806</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7139608" y="455544"/>
-          <a:ext cx="4376968" cy="4076215"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2661,231 +3868,324 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="8" width="11" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="6" width="11" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+    </row>
+    <row r="10" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+    </row>
+    <row r="11" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11"/>
+      <c r="C11" s="2"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
-        <v>1</v>
-      </c>
-      <c r="B4" s="11">
-        <v>1</v>
-      </c>
-      <c r="C4" s="11">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="B18" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C19"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="B21" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="13">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-    </row>
-    <row r="22" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-    </row>
-    <row r="24" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-    </row>
-    <row r="26" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
+      <c r="B22" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+    </row>
+    <row r="29" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+    </row>
+    <row r="31" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.5703125" style="1" customWidth="1"/>
     <col min="4" max="5" width="8.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.5703125" style="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="I1"/>
     </row>
-    <row r="2" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="G2" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
         <v>12</v>
@@ -2897,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1">
         <v>1</v>
@@ -2905,13 +4205,16 @@
       <c r="K3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1">
         <v>12</v>
@@ -2942,12 +4245,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1">
         <v>12</v>
@@ -2969,7 +4272,7 @@
         <v>200</v>
       </c>
       <c r="I5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1">
         <v>3</v>
@@ -2978,12 +4281,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1">
         <v>12</v>
@@ -3005,7 +4308,7 @@
         <v>200</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1">
         <v>4</v>
@@ -3014,12 +4317,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1">
         <v>12</v>
@@ -3041,7 +4344,7 @@
         <v>200</v>
       </c>
       <c r="I7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1">
         <v>5</v>
@@ -3050,12 +4353,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1">
         <v>12</v>
@@ -3077,7 +4380,7 @@
         <v>800</v>
       </c>
       <c r="I8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1">
         <v>6</v>
@@ -3086,12 +4389,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1">
         <v>12</v>
@@ -3113,7 +4416,7 @@
         <v>150</v>
       </c>
       <c r="I9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1">
         <v>2</v>
@@ -3122,12 +4425,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1">
         <v>12</v>
@@ -3149,7 +4452,7 @@
         <v>200</v>
       </c>
       <c r="I10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="1">
         <v>2</v>
@@ -3158,12 +4461,12 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1">
         <v>12</v>
@@ -3185,7 +4488,7 @@
         <v>150</v>
       </c>
       <c r="I11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="1">
         <v>4</v>
@@ -3194,12 +4497,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1">
         <v>12</v>
@@ -3221,7 +4524,7 @@
         <v>150</v>
       </c>
       <c r="I12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="1">
         <v>4</v>
@@ -3230,12 +4533,12 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1">
         <v>12</v>
@@ -3257,7 +4560,7 @@
         <v>200</v>
       </c>
       <c r="I13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="1">
         <v>5</v>
@@ -3266,12 +4569,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1">
         <v>12</v>
@@ -3283,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="1">
         <v>4</v>
@@ -3293,21 +4596,22 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:M2"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="max"/>
         <color rgb="FFFF7128"/>
-        <color theme="0"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="5"/>
         <color theme="0"/>
       </colorScale>
     </cfRule>
@@ -3321,15 +4625,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.140625" style="1" customWidth="1"/>
@@ -3339,87 +4643,92 @@
     <col min="8" max="8" width="7.7109375" customWidth="1"/>
     <col min="9" max="9" width="7.5703125" style="1" customWidth="1"/>
     <col min="10" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" customWidth="1"/>
+    <col min="14" max="14" width="7.85546875" customWidth="1"/>
+    <col min="15" max="15" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="I1"/>
       <c r="J1"/>
       <c r="K1"/>
       <c r="L1"/>
     </row>
-    <row r="2" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>59</v>
+        <v>95</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
+      <c r="C3" s="1" t="str">
+        <f>VLOOKUP(B3,BUS!A:C,2,FALSE)</f>
+        <v>BUS1</v>
       </c>
       <c r="D3" s="1">
+        <f>VLOOKUP(B3,BUS!A:C,3,FALSE)</f>
         <v>12</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
+      <c r="F3" s="1"/>
       <c r="G3" s="7">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="H3" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J3" s="1">
         <v>99999</v>
@@ -3428,21 +4737,27 @@
         <v>-99999</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N3" s="1"/>
+      <c r="O3" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
+      <c r="C4" s="1" t="str">
+        <f>VLOOKUP(B4,BUS!A:C,2,FALSE)</f>
+        <v>BUS12</v>
       </c>
       <c r="D4" s="1">
+        <f>VLOOKUP(B4,BUS!A:C,3,FALSE)</f>
         <v>12</v>
       </c>
       <c r="E4" s="1">
@@ -3452,13 +4767,13 @@
         <v>0</v>
       </c>
       <c r="G4" s="7">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="H4" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J4" s="1">
         <v>99999</v>
@@ -3467,13 +4782,15 @@
         <v>-99999</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M4" s="1">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N4" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:O2"/>
   <conditionalFormatting sqref="F1:F1048576">
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -3503,65 +4820,76 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="5.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="1" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
+      <c r="C3" s="1" t="str">
+        <f>VLOOKUP(B3,BUS!A:C,2,FALSE)</f>
+        <v>BUS6</v>
       </c>
       <c r="D3" s="1">
+        <f>VLOOKUP(B3,BUS!A:C,3,FALSE)</f>
         <v>12</v>
       </c>
       <c r="E3" s="1">
@@ -3576,18 +4904,23 @@
       <c r="H3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
+      <c r="C4" s="1" t="str">
+        <f>VLOOKUP(B4,BUS!A:C,2,FALSE)</f>
+        <v>BUS8</v>
       </c>
       <c r="D4" s="1">
+        <f>VLOOKUP(B4,BUS!A:C,3,FALSE)</f>
         <v>12</v>
       </c>
       <c r="E4" s="1">
@@ -3603,17 +4936,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
+      <c r="C5" s="1" t="str">
+        <f>VLOOKUP(B5,BUS!A:C,2,FALSE)</f>
+        <v>BUS8</v>
       </c>
       <c r="D5" s="1">
+        <f>VLOOKUP(B5,BUS!A:C,3,FALSE)</f>
         <v>12</v>
       </c>
       <c r="E5" s="1">
@@ -3630,6 +4965,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:J5"/>
   <conditionalFormatting sqref="G1:G1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -3649,38 +4985,40 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="1" customWidth="1"/>
-    <col min="8" max="9" width="7.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="10.140625" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
     <col min="14" max="14" width="12.42578125" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="1"/>
-    <col min="17" max="17" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.5703125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
@@ -3690,63 +5028,66 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="R2" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="S2" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3756,6 +5097,14 @@
       <c r="C3" s="1">
         <v>1</v>
       </c>
+      <c r="D3" s="1" t="str">
+        <f>CONCATENATE(VLOOKUP(B3,BUS!A:C,2,FALSE),"-",VLOOKUP(C3,BUS!A:C,2,FALSE))</f>
+        <v>BUS2-BUS1</v>
+      </c>
+      <c r="E3" s="1">
+        <f>VLOOKUP(B3,BUS!A:C,3,FALSE)</f>
+        <v>12</v>
+      </c>
       <c r="F3" s="1">
         <v>1</v>
       </c>
@@ -3787,9 +5136,10 @@
         <v>300</v>
       </c>
       <c r="Q3" s="9"/>
-      <c r="R3" s="4"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R3"/>
+      <c r="S3" s="4"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3799,6 +5149,14 @@
       <c r="C4" s="1">
         <v>2</v>
       </c>
+      <c r="D4" s="1" t="str">
+        <f>CONCATENATE(VLOOKUP(B4,BUS!A:C,2,FALSE),"-",VLOOKUP(C4,BUS!A:C,2,FALSE))</f>
+        <v>BUS3-BUS2</v>
+      </c>
+      <c r="E4" s="1">
+        <f>VLOOKUP(B4,BUS!A:C,3,FALSE)</f>
+        <v>12</v>
+      </c>
       <c r="F4" s="1">
         <v>1</v>
       </c>
@@ -3829,9 +5187,10 @@
       <c r="O4" s="1">
         <v>200</v>
       </c>
-      <c r="R4" s="4"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R4"/>
+      <c r="S4" s="4"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3841,6 +5200,14 @@
       <c r="C5" s="1">
         <v>3</v>
       </c>
+      <c r="D5" s="1" t="str">
+        <f>CONCATENATE(VLOOKUP(B5,BUS!A:C,2,FALSE),"-",VLOOKUP(C5,BUS!A:C,2,FALSE))</f>
+        <v>BUS4-BUS3</v>
+      </c>
+      <c r="E5" s="1">
+        <f>VLOOKUP(B5,BUS!A:C,3,FALSE)</f>
+        <v>12</v>
+      </c>
       <c r="F5" s="1">
         <v>1</v>
       </c>
@@ -3871,9 +5238,10 @@
       <c r="O5" s="1">
         <v>300</v>
       </c>
-      <c r="R5" s="4"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R5"/>
+      <c r="S5" s="4"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3883,6 +5251,14 @@
       <c r="C6" s="1">
         <v>5</v>
       </c>
+      <c r="D6" s="1" t="str">
+        <f>CONCATENATE(VLOOKUP(B6,BUS!A:C,2,FALSE),"-",VLOOKUP(C6,BUS!A:C,2,FALSE))</f>
+        <v>BUS4-BUS5</v>
+      </c>
+      <c r="E6" s="1">
+        <f>VLOOKUP(B6,BUS!A:C,3,FALSE)</f>
+        <v>12</v>
+      </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
@@ -3913,9 +5289,10 @@
       <c r="O6" s="1">
         <v>300</v>
       </c>
-      <c r="R6" s="4"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R6"/>
+      <c r="S6" s="4"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3925,6 +5302,14 @@
       <c r="C7" s="1">
         <v>6</v>
       </c>
+      <c r="D7" s="1" t="str">
+        <f>CONCATENATE(VLOOKUP(B7,BUS!A:C,2,FALSE),"-",VLOOKUP(C7,BUS!A:C,2,FALSE))</f>
+        <v>BUS5-BUS6</v>
+      </c>
+      <c r="E7" s="1">
+        <f>VLOOKUP(B7,BUS!A:C,3,FALSE)</f>
+        <v>12</v>
+      </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
@@ -3955,9 +5340,10 @@
       <c r="O7" s="1">
         <v>300</v>
       </c>
-      <c r="R7" s="4"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R7"/>
+      <c r="S7" s="4"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3967,6 +5353,14 @@
       <c r="C8" s="1">
         <v>7</v>
       </c>
+      <c r="D8" s="1" t="str">
+        <f>CONCATENATE(VLOOKUP(B8,BUS!A:C,2,FALSE),"-",VLOOKUP(C8,BUS!A:C,2,FALSE))</f>
+        <v>BUS2-BUS7</v>
+      </c>
+      <c r="E8" s="1">
+        <f>VLOOKUP(B8,BUS!A:C,3,FALSE)</f>
+        <v>12</v>
+      </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
@@ -3997,9 +5391,10 @@
       <c r="O8" s="1">
         <v>300</v>
       </c>
-      <c r="R8" s="4"/>
-    </row>
-    <row r="9" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R8"/>
+      <c r="S8" s="4"/>
+    </row>
+    <row r="9" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4009,8 +5404,14 @@
       <c r="C9" s="1">
         <v>8</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="D9" s="1" t="str">
+        <f>CONCATENATE(VLOOKUP(B9,BUS!A:C,2,FALSE),"-",VLOOKUP(C9,BUS!A:C,2,FALSE))</f>
+        <v>BUS7-BUS8</v>
+      </c>
+      <c r="E9" s="1">
+        <f>VLOOKUP(B9,BUS!A:C,3,FALSE)</f>
+        <v>12</v>
+      </c>
       <c r="F9" s="1">
         <v>1</v>
       </c>
@@ -4043,9 +5444,9 @@
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="6"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S9" s="6"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4055,6 +5456,14 @@
       <c r="C10" s="1">
         <v>4</v>
       </c>
+      <c r="D10" s="1" t="str">
+        <f>CONCATENATE(VLOOKUP(B10,BUS!A:C,2,FALSE),"-",VLOOKUP(C10,BUS!A:C,2,FALSE))</f>
+        <v>BUS9-BUS4</v>
+      </c>
+      <c r="E10" s="1">
+        <f>VLOOKUP(B10,BUS!A:C,3,FALSE)</f>
+        <v>12</v>
+      </c>
       <c r="F10" s="1">
         <v>1</v>
       </c>
@@ -4085,9 +5494,10 @@
       <c r="O10" s="1">
         <v>300</v>
       </c>
-      <c r="R10" s="4"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R10"/>
+      <c r="S10" s="4"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4097,6 +5507,14 @@
       <c r="C11" s="1">
         <v>9</v>
       </c>
+      <c r="D11" s="1" t="str">
+        <f>CONCATENATE(VLOOKUP(B11,BUS!A:C,2,FALSE),"-",VLOOKUP(C11,BUS!A:C,2,FALSE))</f>
+        <v>BUS10-BUS9</v>
+      </c>
+      <c r="E11" s="1">
+        <f>VLOOKUP(B11,BUS!A:C,3,FALSE)</f>
+        <v>12</v>
+      </c>
       <c r="F11" s="1">
         <v>1</v>
       </c>
@@ -4127,9 +5545,10 @@
       <c r="O11" s="1">
         <v>300</v>
       </c>
-      <c r="R11" s="6"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R11"/>
+      <c r="S11" s="6"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4139,6 +5558,14 @@
       <c r="C12" s="1">
         <v>10</v>
       </c>
+      <c r="D12" s="1" t="str">
+        <f>CONCATENATE(VLOOKUP(B12,BUS!A:C,2,FALSE),"-",VLOOKUP(C12,BUS!A:C,2,FALSE))</f>
+        <v>BUS12-BUS10</v>
+      </c>
+      <c r="E12" s="1">
+        <f>VLOOKUP(B12,BUS!A:C,3,FALSE)</f>
+        <v>12</v>
+      </c>
       <c r="F12" s="1">
         <v>1</v>
       </c>
@@ -4169,9 +5596,10 @@
       <c r="O12" s="1">
         <v>300</v>
       </c>
-      <c r="R12" s="4"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R12"/>
+      <c r="S12" s="4"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4181,6 +5609,14 @@
       <c r="C13" s="1">
         <v>5</v>
       </c>
+      <c r="D13" s="1" t="str">
+        <f>CONCATENATE(VLOOKUP(B13,BUS!A:C,2,FALSE),"-",VLOOKUP(C13,BUS!A:C,2,FALSE))</f>
+        <v>BUS11-BUS5</v>
+      </c>
+      <c r="E13" s="1">
+        <f>VLOOKUP(B13,BUS!A:C,3,FALSE)</f>
+        <v>12</v>
+      </c>
       <c r="F13" s="1">
         <v>1</v>
       </c>
@@ -4211,9 +5647,10 @@
       <c r="O13" s="1">
         <v>300</v>
       </c>
-      <c r="R13" s="4"/>
-    </row>
-    <row r="14" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R13"/>
+      <c r="S13" s="4"/>
+    </row>
+    <row r="14" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4223,8 +5660,14 @@
       <c r="C14" s="1">
         <v>9</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="D14" s="1" t="str">
+        <f>CONCATENATE(VLOOKUP(B14,BUS!A:C,2,FALSE),"-",VLOOKUP(C14,BUS!A:C,2,FALSE))</f>
+        <v>BUS7-BUS9</v>
+      </c>
+      <c r="E14" s="1">
+        <f>VLOOKUP(B14,BUS!A:C,3,FALSE)</f>
+        <v>12</v>
+      </c>
       <c r="F14" s="1">
         <v>1</v>
       </c>
@@ -4257,9 +5700,9 @@
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
-      <c r="R14" s="6"/>
-    </row>
-    <row r="15" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S14" s="6"/>
+    </row>
+    <row r="15" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4269,8 +5712,14 @@
       <c r="C15" s="1">
         <v>11</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="D15" s="1" t="str">
+        <f>CONCATENATE(VLOOKUP(B15,BUS!A:C,2,FALSE),"-",VLOOKUP(C15,BUS!A:C,2,FALSE))</f>
+        <v>BUS9-BUS11</v>
+      </c>
+      <c r="E15" s="1">
+        <f>VLOOKUP(B15,BUS!A:C,3,FALSE)</f>
+        <v>12</v>
+      </c>
       <c r="F15" s="1">
         <v>1</v>
       </c>
@@ -4304,7 +5753,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4314,13 +5763,19 @@
       <c r="C16" s="1">
         <v>10</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="D16" s="1" t="str">
+        <f>CONCATENATE(VLOOKUP(B16,BUS!A:C,2,FALSE),"-",VLOOKUP(C16,BUS!A:C,2,FALSE))</f>
+        <v>BUS8-BUS10</v>
+      </c>
+      <c r="E16" s="1">
+        <f>VLOOKUP(B16,BUS!A:C,3,FALSE)</f>
+        <v>12</v>
+      </c>
       <c r="F16" s="1">
         <v>1</v>
       </c>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="1">
         <v>1</v>
@@ -4349,7 +5804,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4359,8 +5814,14 @@
       <c r="C17" s="1">
         <v>12</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="D17" s="1" t="str">
+        <f>CONCATENATE(VLOOKUP(B17,BUS!A:C,2,FALSE),"-",VLOOKUP(C17,BUS!A:C,2,FALSE))</f>
+        <v>BUS11-BUS12</v>
+      </c>
+      <c r="E17" s="1">
+        <f>VLOOKUP(B17,BUS!A:C,3,FALSE)</f>
+        <v>12</v>
+      </c>
       <c r="F17" s="1">
         <v>1</v>
       </c>
@@ -4398,7 +5859,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -4408,6 +5869,14 @@
       <c r="C18" s="1">
         <v>11</v>
       </c>
+      <c r="D18" s="1" t="str">
+        <f>CONCATENATE(VLOOKUP(B18,BUS!A:C,2,FALSE),"-",VLOOKUP(C18,BUS!A:C,2,FALSE))</f>
+        <v>BUS10-BUS11</v>
+      </c>
+      <c r="E18" s="1">
+        <f>VLOOKUP(B18,BUS!A:C,3,FALSE)</f>
+        <v>12</v>
+      </c>
       <c r="F18" s="1">
         <v>1</v>
       </c>
@@ -4438,14 +5907,18 @@
       <c r="O18" s="1">
         <v>300</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R18"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="Q22" s="9"/>
-    </row>
-    <row r="23" spans="1:17" ht="27.75" x14ac:dyDescent="0.25">
+      <c r="R22" s="9"/>
+    </row>
+    <row r="23" spans="1:18" ht="27.75" x14ac:dyDescent="0.25">
       <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:S18"/>
   <conditionalFormatting sqref="G1:G1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -4465,10 +5938,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4477,20 +5950,21 @@
     <col min="2" max="2" width="9.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="4" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.5703125" style="1" customWidth="1"/>
     <col min="8" max="8" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
     <col min="10" max="11" width="5.85546875" customWidth="1"/>
     <col min="12" max="12" width="6.7109375" customWidth="1"/>
     <col min="13" max="13" width="5.42578125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
@@ -4501,102 +5975,133 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G2" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>77</v>
-      </c>
       <c r="J2" s="12" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="N3" s="4"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f>CONCATENATE(VLOOKUP(B3,BUS!A:C,2,FALSE),"-",VLOOKUP(C3,BUS!A:C,2,FALSE))</f>
+        <v>BUS1-BUS2</v>
+      </c>
+      <c r="E3" s="1">
+        <f>VLOOKUP(B3,BUS!A:C,3,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>400</v>
+      </c>
+      <c r="J3" s="1">
+        <v>10</v>
+      </c>
+      <c r="K3" s="1">
+        <v>12</v>
+      </c>
+      <c r="L3" s="1">
+        <v>3</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="N4" s="4"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O4" s="4"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="15"/>
-      <c r="N6" s="1"/>
+      <c r="L6" s="14"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="N7" s="1"/>
       <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -4612,44 +6117,34 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-    </row>
-    <row r="14" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -4665,10 +6160,8 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-    </row>
-    <row r="15" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -4684,10 +6177,8 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-    </row>
-    <row r="16" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -4703,10 +6194,8 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-    </row>
-    <row r="17" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -4722,49 +6211,24 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="N20" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="N21" s="1"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="N22" s="1"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-    </row>
-    <row r="23" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N23" s="1"/>
+    </row>
+    <row r="23" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="N24" s="1"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="O25" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:O2"/>
   <conditionalFormatting sqref="H1:H1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -4784,10 +6248,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y25"/>
+  <dimension ref="A1:X25"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F1" sqref="E1:F1"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4795,36 +6259,35 @@
     <col min="1" max="1" width="7.140625" style="1" customWidth="1"/>
     <col min="2" max="3" width="8.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="1" customWidth="1"/>
-    <col min="8" max="8" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" customWidth="1"/>
-    <col min="13" max="13" width="8.28515625" customWidth="1"/>
-    <col min="14" max="14" width="7.28515625" customWidth="1"/>
-    <col min="15" max="15" width="7.5703125" customWidth="1"/>
-    <col min="16" max="16" width="7.42578125" customWidth="1"/>
-    <col min="17" max="17" width="8.5703125" customWidth="1"/>
-    <col min="18" max="18" width="9.28515625" customWidth="1"/>
-    <col min="19" max="20" width="7.85546875" customWidth="1"/>
-    <col min="21" max="21" width="7" style="1" customWidth="1"/>
-    <col min="22" max="22" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" customWidth="1"/>
+    <col min="14" max="14" width="7.42578125" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" customWidth="1"/>
+    <col min="16" max="16" width="9.28515625" customWidth="1"/>
+    <col min="17" max="18" width="7.85546875" customWidth="1"/>
+    <col min="19" max="19" width="7" style="1" customWidth="1"/>
+    <col min="20" max="20" width="11.140625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -4832,91 +6295,138 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-    </row>
-    <row r="2" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="L2" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="12" t="s">
+      <c r="M2" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="U2" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <f>CONCATENATE(VLOOKUP(B3,BUS!A:C,2,FALSE),"-",VLOOKUP(C3,BUS!A:C,2,FALSE),"-",VLOOKUP(D3,BUS!A:C,2,FALSE))</f>
+        <v>BUS8-BUS10-BUS12</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L2" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q2" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="S2" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="T2" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="U2" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="V3" s="4"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>25000</v>
+      </c>
+      <c r="J3" s="1">
+        <v>25000</v>
+      </c>
+      <c r="K3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L3" s="1">
+        <v>12</v>
+      </c>
+      <c r="M3" s="1">
+        <v>25</v>
+      </c>
+      <c r="N3" s="1">
+        <v>18</v>
+      </c>
+      <c r="O3" s="1">
+        <v>15</v>
+      </c>
+      <c r="P3" s="1">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>12</v>
+      </c>
+      <c r="R3" s="1">
+        <v>18</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -4925,11 +6435,11 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="V4" s="4"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U4" s="4"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -4938,11 +6448,11 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="V5" s="4"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U5" s="4"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -4951,14 +6461,14 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -4967,14 +6477,14 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -4983,14 +6493,12 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-    </row>
-    <row r="9" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -5015,9 +6523,10 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -5026,14 +6535,14 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -5042,11 +6551,11 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="W11" s="1"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V11" s="1"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -5055,11 +6564,11 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="W12" s="1"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V12" s="1"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -5068,14 +6577,12 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-    </row>
-    <row r="14" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -5100,9 +6607,8 @@
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-    </row>
-    <row r="15" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -5127,9 +6633,8 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-    </row>
-    <row r="16" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -5154,9 +6659,8 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-    </row>
-    <row r="17" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -5181,49 +6685,49 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="W18" s="1"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="W19" s="1"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V18" s="1"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V19" s="1"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-    </row>
-    <row r="23" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="U24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="W25" s="1"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V25" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J1048576">
+  <autoFilter ref="A2:U2"/>
+  <conditionalFormatting sqref="H1:H1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -5235,8 +6739,7 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5245,7 +6748,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5256,18 +6759,18 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="11">
-        <v>1</v>
-      </c>
-      <c r="C2" s="11">
-        <v>2</v>
+        <v>48</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>73</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -5285,10 +6788,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -5299,7 +6802,7 @@
         <v>0.65</v>
       </c>
       <c r="C4" s="1">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -5546,7 +7049,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5555,7 +7059,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5563,36 +7067,37 @@
     <col min="1" max="1" width="9.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
     <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>64</v>
+        <v>13</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -5613,6 +7118,9 @@
       </c>
       <c r="F3" s="1">
         <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">

--- a/inputs/Inputs12.xlsx
+++ b/inputs/Inputs12.xlsx
@@ -2,15 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00_BK\2.BK Research\PSDistribution\psdistribution\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="741" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="741" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SETTING" sheetId="6" r:id="rId1"/>
@@ -22,6 +21,7 @@
     <sheet name="TRF3" sheetId="11" r:id="rId7"/>
     <sheet name="PROFILE" sheetId="5" r:id="rId8"/>
     <sheet name="SHUNT_PLACEMENT" sheetId="7" r:id="rId9"/>
+    <sheet name="PROFILE2" sheetId="19" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BUS!$A$2:$M$2</definedName>
@@ -88,7 +88,21 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="1" shapeId="0">
+    <comment ref="A5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">z[pu] của các đoạn dây ngắn, hoặc MC/DCL
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A8" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -103,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A8" authorId="2" shapeId="0">
+    <comment ref="A9" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -117,7 +131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="2" shapeId="0">
+    <comment ref="A10" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -131,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0" shapeId="0">
+    <comment ref="A11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -144,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="3" shapeId="0">
+    <comment ref="A14" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -158,7 +172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="3" shapeId="0">
+    <comment ref="A15" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -172,7 +186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A15" authorId="0" shapeId="0">
+    <comment ref="A16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -185,7 +199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A16" authorId="0" shapeId="0">
+    <comment ref="A17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -198,7 +212,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A17" authorId="0" shapeId="0">
+    <comment ref="A18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -211,7 +225,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A18" authorId="0" shapeId="0">
+    <comment ref="A19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -224,7 +238,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A21" authorId="0" shapeId="0">
+    <comment ref="A22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -238,7 +252,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A22" authorId="0" shapeId="0">
+    <comment ref="A23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -252,7 +266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A23" authorId="0" shapeId="0">
+    <comment ref="A24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -263,6 +277,62 @@
             <charset val="1"/>
           </rPr>
           <t>Trọng số xét đến công suất phụ tải</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>tc={5265EB0F-E593-42DE-815A-9AF410BEA30D}</author>
+    <author>PhuongPQ</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>time series, 24h/168h, 8760h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Thời gian cho mỗi điểm của profile,
+0.25: 15 phút
+0.5: 30 phút
+1: 1h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>tên profile</t>
         </r>
       </text>
     </comment>
@@ -711,10 +781,14 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>plot kết quả tính toán; 1,2,5
+          <t xml:space="preserve">plot kết quả tính toán; 1,2,5
 1: pn[kw]
 10: pn[mw]
-3: pgen[kw]</t>
+2: pgen[kw]
+20: pgen[mw]
+3: qgen[kw]
+30: qgen[mw]
+</t>
         </r>
       </text>
     </comment>
@@ -809,7 +883,7 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
-          <t>Công suất Tụ/Kháng bù ở kV
+          <t>Công suất Tụ/Kháng bù ở điện áp định mức (của lưới)
  &gt;0: capacitive; &lt;0 reactive</t>
         </r>
       </text>
@@ -824,7 +898,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Tổn thất cs tác dụng [kw]</t>
+          <t>Tổn thất cs tác dụng [kw] tại điện áp định mức (của lưới)</t>
         </r>
       </text>
     </comment>
@@ -853,6 +927,55 @@
             <scheme val="minor"/>
           </rPr>
           <t>1: Shunt có thể đóng/mở (bài toán tối ưu điểm mở)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I2" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>plot kết quả tính toán; 1,10</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+1: q [kva]
+10: q[mva]</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J2" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Các ghi chú</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
@@ -1078,6 +1201,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="R2" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Plot kết quả đầu ra:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>1: pq[kw] đầu 1
+2: pq[kw] đầu 2
+11: pq[mw] đầu 1
+12: pq[mw] đầu 2
+31: i[a] đầu 1
+32: i[a] đầu 2
+100: rate%</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="S2" authorId="1" shapeId="0">
       <text>
         <r>
@@ -1283,6 +1436,29 @@
         </r>
       </text>
     </comment>
+    <comment ref="N2" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Plot kết quả đầu ra:
+1: pq[kw] đầu 1
+2: pq[kw] đầu 2
+11: pq[mw] đầu 1
+12: pq[mw] đầu 2
+31: i[a] đầu 1
+32: i[a] đầu 2
+100: rate max (1,2)
+101: rate% cuộn 1
+102: rate% cuộn 2
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="O2" authorId="1" shapeId="0">
       <text>
         <r>
@@ -1562,6 +1738,42 @@
         </r>
       </text>
     </comment>
+    <comment ref="T2" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Plot kết quả đầu ra:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+1: pq[kw] đầu 1
+2: pq[kw] đầu 2
+2: pq[kw] đầu 3
+11: pq[mw] đầu 1
+12: pq[mw] đầu 2
+13: pq[mw] đầu 3
+31: i[a] đầu 1
+32: i[a] đầu 2
+33: i[a] đầu 3
+100: rate max (1,2,3)
+101: rate% cuộn 1
+102: rate% cuộn 2
+103: rate% cuộn 3</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="U2" authorId="1" shapeId="0">
       <text>
         <r>
@@ -1602,6 +1814,23 @@
       </text>
     </comment>
     <comment ref="B2" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Thời gian cho mỗi điểm của profile,
+0.25: 15 phút
+0.5: 30 phút
+1: 1h</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1742,7 +1971,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="109">
   <si>
     <t>NAME</t>
   </si>
@@ -1804,24 +2033,12 @@
     <t>## BRANCHING</t>
   </si>
   <si>
-    <t>100,1e3</t>
-  </si>
-  <si>
-    <t>1.1,1e4</t>
-  </si>
-  <si>
-    <t>0.9,1e4</t>
-  </si>
-  <si>
     <t>yCoord</t>
   </si>
   <si>
     <t>xCoord</t>
   </si>
   <si>
-    <t>0.85,1e4</t>
-  </si>
-  <si>
     <t>## POWERFLOW</t>
   </si>
   <si>
@@ -1996,15 +2213,9 @@
     <t>GE_Sbase</t>
   </si>
   <si>
-    <t>200,1e-5</t>
-  </si>
-  <si>
     <t>VALUE</t>
   </si>
   <si>
-    <t>0.95,1e4</t>
-  </si>
-  <si>
     <t>## SETTING: các cài đặt tính toán ## for comment</t>
   </si>
   <si>
@@ -2069,6 +2280,24 @@
   </si>
   <si>
     <t>đơn vị kva,kw</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>1e-5</t>
+  </si>
+  <si>
+    <t>1e3</t>
+  </si>
+  <si>
+    <t>1e4</t>
+  </si>
+  <si>
+    <t>deltaTime</t>
+  </si>
+  <si>
+    <t>GE_ZSwitch</t>
   </si>
 </sst>
 </file>
@@ -2079,7 +2308,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2131,6 +2360,12 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2179,7 +2414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2224,6 +2459,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2359,6 +2607,326 @@
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PROFILE!$D$3:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3B61-4C1A-B6BE-A8728BE73A4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1735167647"/>
+        <c:axId val="1735168063"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1735167647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="24"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1735168063"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1735168063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1735167647"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Profile: p</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>1</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PROFILE2!$A$3:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2433,7 +3001,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PROFILE!$B$3:$B$26</c:f>
+              <c:f>PROFILE2!$D$3:$D$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -2515,7 +3083,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3B61-4C1A-B6BE-A8728BE73A4E}"/>
+              <c16:uniqueId val="{00000000-F935-46E8-863D-892AAEBB7423}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2740,7 +3308,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3389,16 +4513,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>62946</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>291546</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>398616</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>135348</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>503391</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>87723</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3415,7 +4539,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9273621" y="1981200"/>
+          <a:off x="12302571" y="2505075"/>
           <a:ext cx="3202695" cy="2964273"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3475,13 +4599,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>108387</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>111671</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>236482</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>57806</xdr:rowOff>
@@ -3490,6 +4614,43 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>108387</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>111671</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>236482</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>57806</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3868,17 +5029,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S31"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" style="16" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="11.140625" customWidth="1"/>
     <col min="5" max="6" width="11" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
@@ -3886,87 +5048,75 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>80</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B4" s="13">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>26</v>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>14</v>
+      <c r="A7" s="16" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
-      <c r="R9"/>
-      <c r="S9"/>
+        <v>33</v>
+      </c>
+      <c r="B9" s="11">
+        <v>200</v>
+      </c>
+      <c r="C9" s="25">
+        <v>1E-8</v>
+      </c>
     </row>
     <row r="10" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="B10" s="11">
+        <v>200</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>104</v>
+      </c>
       <c r="D10"/>
       <c r="E10"/>
       <c r="F10"/>
@@ -3985,9 +5135,15 @@
       <c r="S10"/>
     </row>
     <row r="11" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="11">
+        <v>200</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>104</v>
+      </c>
       <c r="D11"/>
       <c r="E11"/>
       <c r="F11"/>
@@ -4005,81 +5161,110 @@
       <c r="R11"/>
       <c r="S11"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+    <row r="12" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="B12"/>
+      <c r="C12" s="2"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B12"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="B13"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>20</v>
+        <v>74</v>
+      </c>
+      <c r="B14" s="11">
+        <v>100</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>21</v>
+        <v>75</v>
+      </c>
+      <c r="B15" s="11">
+        <v>100</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>22</v>
+        <v>28</v>
+      </c>
+      <c r="B16" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17"/>
+        <v>29</v>
+      </c>
+      <c r="B17" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18"/>
+        <v>30</v>
+      </c>
+      <c r="B18" s="11">
+        <v>0.85</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C19"/>
+      <c r="A19" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="C20"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="11">
-        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B22" s="11">
         <v>1</v>
@@ -4087,20 +5272,28 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B23" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-    </row>
-    <row r="29" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-    </row>
-    <row r="31" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+    </row>
+    <row r="30" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+    </row>
+    <row r="32" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4109,15 +5302,433 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1">
+        <v>1.01</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
+      <selection activeCell="G26" sqref="G26"/>
+      <selection pane="topRight" activeCell="G26" sqref="G26"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4135,13 +5746,13 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I1"/>
     </row>
     <row r="2" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>0</v>
@@ -4153,31 +5764,31 @@
         <v>13</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="M2" s="20" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -4196,9 +5807,6 @@
       <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
       <c r="J3" s="1">
         <v>1</v>
       </c>
@@ -4206,10 +5814,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4235,9 +5843,7 @@
         <f>F4</f>
         <v>200</v>
       </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
+      <c r="I4" s="21"/>
       <c r="J4" s="1">
         <v>2</v>
       </c>
@@ -4271,9 +5877,6 @@
         <f t="shared" ref="H5:H13" si="0">F5</f>
         <v>200</v>
       </c>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
       <c r="J5" s="1">
         <v>3</v>
       </c>
@@ -4307,9 +5910,6 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
       <c r="J6" s="1">
         <v>4</v>
       </c>
@@ -4343,9 +5943,6 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
       <c r="J7" s="1">
         <v>5</v>
       </c>
@@ -4379,9 +5976,6 @@
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
-      <c r="I8" s="1">
-        <v>1</v>
-      </c>
       <c r="J8" s="1">
         <v>6</v>
       </c>
@@ -4415,9 +6009,6 @@
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="I9" s="1">
-        <v>1</v>
-      </c>
       <c r="J9" s="1">
         <v>2</v>
       </c>
@@ -4451,9 +6042,6 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="I10" s="1">
-        <v>1</v>
-      </c>
       <c r="J10" s="1">
         <v>2</v>
       </c>
@@ -4478,17 +6066,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
         <v>4</v>
@@ -4523,9 +6107,6 @@
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="I12" s="1">
-        <v>1</v>
-      </c>
       <c r="J12" s="1">
         <v>4</v>
       </c>
@@ -4559,9 +6140,6 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="I13" s="1">
-        <v>1</v>
-      </c>
       <c r="J13" s="1">
         <v>5</v>
       </c>
@@ -4584,9 +6162,6 @@
       </c>
       <c r="E14" s="1">
         <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <v>1</v>
       </c>
       <c r="J14" s="1">
         <v>4</v>
@@ -4617,7 +6192,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
@@ -4625,10 +6200,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O4"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4651,7 +6227,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I1"/>
       <c r="J1"/>
@@ -4660,10 +6236,10 @@
     </row>
     <row r="2" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>0</v>
@@ -4675,34 +6251,34 @@
         <v>13</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="O2" s="20" t="s">
         <v>43</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="O2" s="20" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -4725,24 +6301,21 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="7">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="H3" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
         <v>99999</v>
       </c>
       <c r="K3" s="1">
         <v>-99999</v>
-      </c>
-      <c r="L3" s="1">
-        <v>2</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -4767,7 +6340,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="7">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="H4" s="3">
         <v>0</v>
@@ -4781,13 +6354,13 @@
       <c r="K4" s="1">
         <v>-99999</v>
       </c>
-      <c r="L4" s="1">
-        <v>2</v>
-      </c>
-      <c r="M4" s="1">
-        <v>1</v>
-      </c>
+      <c r="M4" s="1"/>
       <c r="N4" s="1"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J6" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:O2"/>
@@ -4820,10 +6393,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4841,16 +6415,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>0</v>
@@ -4859,10 +6433,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>13</v>
@@ -4871,10 +6445,10 @@
         <v>16</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -4882,11 +6456,11 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="str">
         <f>VLOOKUP(B3,BUS!A:C,2,FALSE)</f>
-        <v>BUS6</v>
+        <v>BUS4</v>
       </c>
       <c r="D3" s="1">
         <f>VLOOKUP(B3,BUS!A:C,3,FALSE)</f>
@@ -4905,7 +6479,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -4913,11 +6487,11 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="str">
         <f>VLOOKUP(B4,BUS!A:C,2,FALSE)</f>
-        <v>BUS8</v>
+        <v>BUS9</v>
       </c>
       <c r="D4" s="1">
         <f>VLOOKUP(B4,BUS!A:C,3,FALSE)</f>
@@ -4941,11 +6515,11 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="str">
         <f>VLOOKUP(B5,BUS!A:C,2,FALSE)</f>
-        <v>BUS8</v>
+        <v>BUS9</v>
       </c>
       <c r="D5" s="1">
         <f>VLOOKUP(B5,BUS!A:C,3,FALSE)</f>
@@ -4961,6 +6535,34 @@
         <v>1</v>
       </c>
       <c r="H5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f>VLOOKUP(B6,BUS!A:C,2,FALSE)</f>
+        <v>BUS10</v>
+      </c>
+      <c r="D6" s="1">
+        <f>VLOOKUP(B6,BUS!A:C,3,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="E6" s="1">
+        <v>50</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="24">
+        <v>1</v>
+      </c>
+      <c r="H6" s="24">
         <v>1</v>
       </c>
     </row>
@@ -4985,13 +6587,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I23" sqref="I23"/>
+      <selection activeCell="G26" sqref="G26"/>
+      <selection pane="topRight" activeCell="G26" sqref="G26"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5012,8 +6616,8 @@
     <col min="14" max="14" width="12.42578125" customWidth="1"/>
     <col min="16" max="16" width="10.42578125" style="1" customWidth="1"/>
     <col min="17" max="17" width="11.85546875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.5703125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -5030,61 +6634,61 @@
     </row>
     <row r="2" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>16</v>
       </c>
       <c r="J2" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="K2" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>74</v>
-      </c>
       <c r="S2" s="20" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -5284,7 +6888,7 @@
         <v>0.41</v>
       </c>
       <c r="N6" s="1">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="O6" s="1">
         <v>300</v>
@@ -5297,14 +6901,14 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
         <v>5</v>
-      </c>
-      <c r="C7" s="1">
-        <v>6</v>
       </c>
       <c r="D7" s="1" t="str">
         <f>CONCATENATE(VLOOKUP(B7,BUS!A:C,2,FALSE),"-",VLOOKUP(C7,BUS!A:C,2,FALSE))</f>
-        <v>BUS5-BUS6</v>
+        <v>BUS6-BUS5</v>
       </c>
       <c r="E7" s="1">
         <f>VLOOKUP(B7,BUS!A:C,3,FALSE)</f>
@@ -5540,7 +7144,7 @@
         <v>0.41</v>
       </c>
       <c r="N11" s="1">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="O11" s="1">
         <v>300</v>
@@ -5591,7 +7195,7 @@
         <v>0.41</v>
       </c>
       <c r="N12" s="1">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
         <v>300</v>
@@ -5775,7 +7379,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="1">
         <v>1</v>
@@ -5938,10 +7542,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5964,7 +7569,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
@@ -5977,49 +7582,49 @@
     </row>
     <row r="2" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>13</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="O2" s="20" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -6044,7 +7649,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
@@ -6248,10 +7853,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:X25"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6273,13 +7879,13 @@
     <col min="16" max="16" width="9.28515625" customWidth="1"/>
     <col min="17" max="18" width="7.85546875" customWidth="1"/>
     <col min="19" max="19" width="7" style="1" customWidth="1"/>
-    <col min="20" max="20" width="11.140625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="17.85546875" style="1" customWidth="1"/>
     <col min="21" max="21" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
@@ -6298,67 +7904,67 @@
     </row>
     <row r="2" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>13</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="R2" s="12" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="S2" s="12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="T2" s="12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="U2" s="20" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -6382,7 +7988,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
@@ -6421,7 +8027,7 @@
         <v>0.03</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -6745,35 +8351,43 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M26"/>
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -6782,270 +8396,138 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1">
         <v>1.01</v>
       </c>
-      <c r="C3" s="1">
+      <c r="E3" s="1">
         <v>1.02</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.52</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0.85</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0.86</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0.88</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0.92</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0.94</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0.96</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0.96</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0.94</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0.85</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1.01</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1.01</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" s="1">
-        <v>0.85</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1.01</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" s="1">
-        <v>0.84</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1.01</v>
-      </c>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1.02</v>
-      </c>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" s="1">
-        <v>0.76</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1.02</v>
-      </c>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7056,10 +8538,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7074,30 +8557,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -7120,7 +8603,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">

--- a/inputs/Inputs12.xlsx
+++ b/inputs/Inputs12.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="741" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28920" windowHeight="12330" tabRatio="741" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SETTING" sheetId="6" r:id="rId1"/>
@@ -26,7 +26,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BUS!$A$2:$M$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">LINE!$A$2:$S$18</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">SHUNT!$A$2:$J$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">SHUNT!$A$2:$K$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SOURCE!$A$2:$O$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'TRF2'!$A$2:$O$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'TRF3'!$A$2:$U$2</definedName>
@@ -940,22 +940,36 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>plot kết quả tính toán; 1,10</t>
-        </r>
-        <r>
-          <rPr>
+          <t>Biểu đồ công suất phát của nguồn</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J2" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
+          <t>plot kết quả tính toán; 1,10</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
           <t xml:space="preserve">
 1: q [kva]
 10: q[mva]</t>
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="2" shapeId="0">
+    <comment ref="K2" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1971,7 +1985,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="110">
   <si>
     <t>NAME</t>
   </si>
@@ -2298,6 +2312,9 @@
   </si>
   <si>
     <t>GE_ZSwitch</t>
+  </si>
+  <si>
+    <t>shunt Profile</t>
   </si>
 </sst>
 </file>
@@ -2414,7 +2431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2473,6 +2490,14 @@
     <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2607,6 +2632,9 @@
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2617,7 +2645,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>1.01</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4384,16 +4415,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>295308</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>54792</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>287981</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>201330</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>460182</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>73262</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>174433</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95242</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4410,7 +4441,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7050731" y="1080561"/>
+          <a:off x="10413789" y="391830"/>
           <a:ext cx="5359663" cy="4971470"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4470,13 +4501,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>438978</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>325429</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>28027</xdr:rowOff>
@@ -4513,16 +4544,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>291546</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>452739</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>91588</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>503391</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>87723</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>789142</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>36436</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4539,8 +4570,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12302571" y="2505075"/>
-          <a:ext cx="3202695" cy="2964273"/>
+          <a:off x="8805431" y="3212857"/>
+          <a:ext cx="3201230" cy="2963541"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5033,7 +5064,7 @@
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5306,7 +5337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
@@ -5721,14 +5752,14 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G26" sqref="G26"/>
       <selection pane="topRight" activeCell="G26" sqref="G26"/>
       <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5742,15 +5773,16 @@
     <col min="8" max="8" width="8" style="1" customWidth="1"/>
     <col min="9" max="9" width="9.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="23.140625" customWidth="1"/>
+    <col min="14" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
       <c r="I1"/>
     </row>
-    <row r="2" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>44</v>
       </c>
@@ -5791,7 +5823,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -5817,7 +5849,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -5837,21 +5869,27 @@
         <v>200</v>
       </c>
       <c r="G4" s="1">
-        <v>100</v>
+        <f>N4*3</f>
+        <v>300</v>
       </c>
       <c r="H4" s="1">
         <f>F4</f>
         <v>200</v>
       </c>
-      <c r="I4" s="21"/>
+      <c r="I4" s="26" t="s">
+        <v>68</v>
+      </c>
       <c r="J4" s="1">
         <v>2</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -5871,11 +5909,15 @@
         <v>200</v>
       </c>
       <c r="G5" s="1">
-        <v>100</v>
+        <f t="shared" ref="G5:G13" si="0">N5*3</f>
+        <v>300</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" ref="H5:H13" si="0">F5</f>
+        <f t="shared" ref="H5:H13" si="1">F5</f>
         <v>200</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>68</v>
       </c>
       <c r="J5" s="1">
         <v>3</v>
@@ -5883,8 +5925,11 @@
       <c r="K5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -5904,11 +5949,15 @@
         <v>200</v>
       </c>
       <c r="G6" s="1">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>300</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>200</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>68</v>
       </c>
       <c r="J6" s="1">
         <v>4</v>
@@ -5916,8 +5965,11 @@
       <c r="K6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -5937,11 +5989,15 @@
         <v>200</v>
       </c>
       <c r="G7" s="1">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>300</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>200</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>68</v>
       </c>
       <c r="J7" s="1">
         <v>5</v>
@@ -5949,8 +6005,11 @@
       <c r="K7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -5970,11 +6029,15 @@
         <v>800</v>
       </c>
       <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>2400</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="1"/>
         <v>800</v>
       </c>
-      <c r="H8" s="1">
-        <f t="shared" si="0"/>
-        <v>800</v>
+      <c r="I8" s="26" t="s">
+        <v>68</v>
       </c>
       <c r="J8" s="1">
         <v>6</v>
@@ -5982,8 +6045,11 @@
       <c r="K8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -6003,11 +6069,15 @@
         <v>150</v>
       </c>
       <c r="G9" s="1">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>300</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>150</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>68</v>
       </c>
       <c r="J9" s="1">
         <v>2</v>
@@ -6015,8 +6085,11 @@
       <c r="K9" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -6036,11 +6109,15 @@
         <v>200</v>
       </c>
       <c r="G10" s="1">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>300</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>200</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>68</v>
       </c>
       <c r="J10" s="1">
         <v>2</v>
@@ -6048,8 +6125,11 @@
       <c r="K10" s="1">
         <v>-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -6066,22 +6146,28 @@
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
       </c>
+      <c r="I11" s="26" t="s">
+        <v>68</v>
+      </c>
       <c r="J11" s="1">
         <v>4</v>
       </c>
       <c r="K11" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -6098,14 +6184,17 @@
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>150</v>
+        <v>20000</v>
       </c>
       <c r="G12" s="1">
-        <v>100</v>
+        <v>50000</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="0"/>
-        <v>150</v>
+        <f t="shared" si="1"/>
+        <v>20000</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>68</v>
       </c>
       <c r="J12" s="1">
         <v>4</v>
@@ -6113,8 +6202,11 @@
       <c r="K12" s="1">
         <v>-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -6134,11 +6226,15 @@
         <v>200</v>
       </c>
       <c r="G13" s="1">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>300</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>200</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>68</v>
       </c>
       <c r="J13" s="1">
         <v>5</v>
@@ -6146,8 +6242,11 @@
       <c r="K13" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -6163,6 +6262,7 @@
       <c r="E14" s="1">
         <v>0</v>
       </c>
+      <c r="I14" s="21"/>
       <c r="J14" s="1">
         <v>4</v>
       </c>
@@ -6174,7 +6274,7 @@
   <autoFilter ref="A2:M2"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6182,7 +6282,7 @@
         <color theme="0"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="max"/>
@@ -6204,7 +6304,7 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6301,7 +6401,7 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="7">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="H3" s="3">
         <v>0</v>
@@ -6311,6 +6411,9 @@
       </c>
       <c r="K3" s="1">
         <v>-99999</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -6340,7 +6443,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="7">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="H4" s="3">
         <v>0</v>
@@ -6353,6 +6456,9 @@
       </c>
       <c r="K4" s="1">
         <v>-99999</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -6394,10 +6500,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6409,17 +6515,17 @@
     <col min="5" max="5" width="8.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="1" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>44</v>
       </c>
@@ -6444,14 +6550,17 @@
       <c r="H2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="K2" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -6473,16 +6582,17 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
       </c>
-      <c r="J3" t="s">
+      <c r="I3" s="1"/>
+      <c r="K3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -6504,13 +6614,14 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -6532,13 +6643,14 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -6560,14 +6672,15 @@
         <v>0</v>
       </c>
       <c r="G6" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="24">
         <v>1</v>
       </c>
+      <c r="I6" s="24"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J5"/>
+  <autoFilter ref="A2:K5"/>
   <conditionalFormatting sqref="G1:G1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -6590,12 +6703,12 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G26" sqref="G26"/>
       <selection pane="topRight" activeCell="G26" sqref="G26"/>
       <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7101,107 +7214,109 @@
       <c r="R10"/>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="27">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="27">
         <v>10</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="27">
         <v>9</v>
       </c>
-      <c r="D11" s="1" t="str">
+      <c r="D11" s="27" t="str">
         <f>CONCATENATE(VLOOKUP(B11,BUS!A:C,2,FALSE),"-",VLOOKUP(C11,BUS!A:C,2,FALSE))</f>
         <v>BUS10-BUS9</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="27">
         <f>VLOOKUP(B11,BUS!A:C,3,FALSE)</f>
         <v>12</v>
       </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1">
+      <c r="F11" s="27">
+        <v>1</v>
+      </c>
+      <c r="G11" s="27">
+        <v>1</v>
+      </c>
+      <c r="H11" s="27">
+        <v>1</v>
+      </c>
+      <c r="I11" s="27">
+        <v>1</v>
+      </c>
+      <c r="J11" s="27">
         <v>2.5</v>
       </c>
-      <c r="K11" s="1">
-        <v>1</v>
-      </c>
-      <c r="L11" s="1">
+      <c r="K11" s="27">
+        <v>1</v>
+      </c>
+      <c r="L11" s="27">
         <v>0.21</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="27">
         <v>0.41</v>
       </c>
-      <c r="N11" s="1">
-        <v>700</v>
-      </c>
-      <c r="O11" s="1">
+      <c r="N11" s="27">
+        <v>0</v>
+      </c>
+      <c r="O11" s="27">
         <v>300</v>
       </c>
-      <c r="R11"/>
-      <c r="S11" s="6"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="S11" s="29"/>
+    </row>
+    <row r="12" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="27">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="27">
         <v>12</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="27">
         <v>10</v>
       </c>
-      <c r="D12" s="1" t="str">
+      <c r="D12" s="27" t="str">
         <f>CONCATENATE(VLOOKUP(B12,BUS!A:C,2,FALSE),"-",VLOOKUP(C12,BUS!A:C,2,FALSE))</f>
         <v>BUS12-BUS10</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="27">
         <f>VLOOKUP(B12,BUS!A:C,3,FALSE)</f>
         <v>12</v>
       </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
-      <c r="I12" s="1">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1">
+      <c r="F12" s="27">
+        <v>1</v>
+      </c>
+      <c r="G12" s="27">
+        <v>1</v>
+      </c>
+      <c r="H12" s="27">
+        <v>1</v>
+      </c>
+      <c r="I12" s="27">
+        <v>1</v>
+      </c>
+      <c r="J12" s="27">
         <v>3.5</v>
       </c>
-      <c r="K12" s="1">
-        <v>1</v>
-      </c>
-      <c r="L12" s="1">
+      <c r="K12" s="27">
+        <v>1</v>
+      </c>
+      <c r="L12" s="27">
         <v>0.21</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="27">
         <v>0.41</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N12" s="27">
         <v>0</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="27">
         <v>300</v>
       </c>
-      <c r="R12"/>
-      <c r="S12" s="4"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="S12" s="29"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -7856,7 +7971,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:X25"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
@@ -8355,7 +8470,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8408,16 +8523,26 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>1.02</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
       <c r="C4" s="1"/>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
